--- a/analysen/choropleth_SPD.xlsx
+++ b/analysen/choropleth_SPD.xlsx
@@ -2933,10 +2933,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>15.83759310647</v>
+        <v>15.7976778404207</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.64937219803688</v>
+        <v>-1.68928746408614</v>
       </c>
     </row>
     <row r="3">
@@ -2956,10 +2956,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0946731615336</v>
+        <v>15.0578802580119</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.34468152478889</v>
+        <v>-3.38147442831058</v>
       </c>
     </row>
     <row r="4">
@@ -2979,10 +2979,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>16.9787017344157</v>
+        <v>16.9300158308193</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.1180058154679</v>
+        <v>-1.1666917190643</v>
       </c>
     </row>
     <row r="5">
@@ -3002,10 +3002,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>14.1329346826127</v>
+        <v>14.0824834953681</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.56533503962116</v>
+        <v>-3.61578622686573</v>
       </c>
     </row>
     <row r="6">
@@ -3025,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>18.0958035421035</v>
+        <v>18.0125238909566</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.26292736548625</v>
+        <v>-3.34620701663314</v>
       </c>
     </row>
     <row r="7">
@@ -3048,10 +3048,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>21.7726396917148</v>
+        <v>22.0272904483431</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.66486030828516</v>
+        <v>-3.41020955165693</v>
       </c>
     </row>
     <row r="8">
@@ -3071,10 +3071,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>26.2777242044359</v>
+        <v>26.3412276462059</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.34878181966052</v>
+        <v>-6.28527837789049</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +3094,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>25.0186520765979</v>
+        <v>24.9627791563275</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.95016487174777</v>
+        <v>-6.00603779201809</v>
       </c>
     </row>
     <row r="10">
@@ -3117,10 +3117,10 @@
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>19.5879888268156</v>
+        <v>19.4724054147865</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.81153514462265</v>
+        <v>-5.92711855665176</v>
       </c>
     </row>
     <row r="11">
@@ -3140,10 +3140,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>21.5377560379089</v>
+        <v>21.4983216356424</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.1366407029247</v>
+        <v>-7.17607510519124</v>
       </c>
     </row>
     <row r="12">
@@ -3163,10 +3163,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>24.0875912408759</v>
+        <v>24.0397350993377</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.64668347029226</v>
+        <v>-8.69453961183042</v>
       </c>
     </row>
     <row r="13">
@@ -3186,10 +3186,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>22.8351721832163</v>
+        <v>22.7970627503338</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.96240275784128</v>
+        <v>-6.00051219072382</v>
       </c>
     </row>
     <row r="14">
@@ -3209,10 +3209,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>23.5606484069312</v>
+        <v>23.5409103602346</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.46076486930001</v>
+        <v>-6.48050291599669</v>
       </c>
     </row>
     <row r="15">
@@ -3278,10 +3278,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>22.8596646072374</v>
+        <v>22.7592267135325</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.68719695768089</v>
+        <v>-5.7876348513858</v>
       </c>
     </row>
     <row r="18">
@@ -3301,10 +3301,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>26.1810313739632</v>
+        <v>26.228323699422</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.77599703098944</v>
+        <v>-6.7287047055307</v>
       </c>
     </row>
     <row r="19">
@@ -3324,10 +3324,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>21.2194337194337</v>
+        <v>21.1921593830334</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.88595269742811</v>
+        <v>-3.91322703382841</v>
       </c>
     </row>
     <row r="20">
@@ -3347,10 +3347,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>21.9525648097077</v>
+        <v>21.8561230093355</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.98942488939778</v>
+        <v>-4.08586668976992</v>
       </c>
     </row>
     <row r="21">
@@ -3370,10 +3370,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>30.6627822286963</v>
+        <v>30.6963179001094</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.73068271344122</v>
+        <v>-7.69714704202813</v>
       </c>
     </row>
     <row r="22">
@@ -3393,10 +3393,10 @@
         <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>22.2175201015658</v>
+        <v>22.1238938053097</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.39335855952206</v>
+        <v>-4.48698485577813</v>
       </c>
     </row>
     <row r="23">
@@ -3416,10 +3416,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>25.037080984871</v>
+        <v>24.9574924225623</v>
       </c>
       <c r="G23" t="n">
-        <v>-14.1083309177969</v>
+        <v>-14.1879194801056</v>
       </c>
     </row>
     <row r="24">
@@ -3439,10 +3439,10 @@
         <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>23.5065466448445</v>
+        <v>23.4394124847001</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.25152414473153</v>
+        <v>-8.31865830487592</v>
       </c>
     </row>
     <row r="25">
@@ -3462,10 +3462,10 @@
         <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>21.6786289731947</v>
+        <v>21.6532553035845</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.40148547601849</v>
+        <v>-4.42685914562867</v>
       </c>
     </row>
     <row r="26">
@@ -3485,10 +3485,10 @@
         <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>24.1045791144023</v>
+        <v>24.0500603136309</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.26590191338378</v>
+        <v>-6.3204207141552</v>
       </c>
     </row>
     <row r="27">
@@ -3508,10 +3508,10 @@
         <v>9</v>
       </c>
       <c r="F27" t="n">
-        <v>22.8405898876405</v>
+        <v>22.8125547957215</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.78152992802775</v>
+        <v>-6.80956501994665</v>
       </c>
     </row>
     <row r="28">
@@ -3531,10 +3531,10 @@
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>28.1933256616801</v>
+        <v>28.2041442824252</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.58605883961765</v>
+        <v>-6.57524021887257</v>
       </c>
     </row>
     <row r="29">
@@ -3554,10 +3554,10 @@
         <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>22.0368177414146</v>
+        <v>21.9871106337272</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.09195742637066</v>
+        <v>-5.14166453405806</v>
       </c>
     </row>
     <row r="30">
@@ -3577,10 +3577,10 @@
         <v>9</v>
       </c>
       <c r="F30" t="n">
-        <v>20.1763668430335</v>
+        <v>20.0913242009132</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.86784964087169</v>
+        <v>-4.95289228299196</v>
       </c>
     </row>
     <row r="31">
@@ -3600,10 +3600,10 @@
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>15.2456548515122</v>
+        <v>15.2019650655022</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.81327823349507</v>
+        <v>-5.85696801950514</v>
       </c>
     </row>
     <row r="32">
@@ -3623,10 +3623,10 @@
         <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>15.4462659380692</v>
+        <v>15.435020021842</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.98758476407417</v>
+        <v>-5.99883068030137</v>
       </c>
     </row>
     <row r="33">
@@ -3646,10 +3646,10 @@
         <v>9</v>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>19.9693955623565</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.27222659323368</v>
+        <v>-4.30283103087713</v>
       </c>
     </row>
     <row r="34">
@@ -3669,10 +3669,10 @@
         <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>19.8333781241602</v>
+        <v>19.7590361445783</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.9690877026959</v>
+        <v>-7.04342968227776</v>
       </c>
     </row>
     <row r="35">
@@ -3692,10 +3692,10 @@
         <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>15.9710310653707</v>
+        <v>15.9239904988124</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.52573091530083</v>
+        <v>-6.57277148185916</v>
       </c>
     </row>
     <row r="36">
@@ -3715,10 +3715,10 @@
         <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>14.5041502839668</v>
+        <v>14.4347826086957</v>
       </c>
       <c r="G36" t="n">
-        <v>-6.15816314886902</v>
+        <v>-6.22753082414017</v>
       </c>
     </row>
     <row r="37">
@@ -3761,10 +3761,10 @@
         <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>15.640243902439</v>
+        <v>15.5360387643852</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.89635621855311</v>
+        <v>-6.00056135660692</v>
       </c>
     </row>
     <row r="39">
@@ -3784,10 +3784,10 @@
         <v>9</v>
       </c>
       <c r="F39" t="n">
-        <v>17.8912934071465</v>
+        <v>17.9003021148036</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.34245627421985</v>
+        <v>-3.33344756656268</v>
       </c>
     </row>
     <row r="40">
@@ -3807,10 +3807,10 @@
         <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>13.1998642687479</v>
+        <v>13.1775067750678</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.04621616751661</v>
+        <v>-4.06857366119673</v>
       </c>
     </row>
     <row r="41">
@@ -3830,10 +3830,10 @@
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>17.3940949935815</v>
+        <v>17.3317984139166</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.08483949948726</v>
+        <v>-5.14713607915217</v>
       </c>
     </row>
     <row r="42">
@@ -3853,10 +3853,10 @@
         <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>16.2108262108262</v>
+        <v>16.1555934128336</v>
       </c>
       <c r="G42" t="n">
-        <v>-8.93416136166758</v>
+        <v>-8.98939415966017</v>
       </c>
     </row>
     <row r="43">
@@ -3899,10 +3899,10 @@
         <v>9</v>
       </c>
       <c r="F44" t="n">
-        <v>13.8539042821159</v>
+        <v>13.8290229885057</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.19990397858894</v>
+        <v>-8.22478527219907</v>
       </c>
     </row>
     <row r="45">
@@ -3922,10 +3922,10 @@
         <v>9</v>
       </c>
       <c r="F45" t="n">
-        <v>15.7836235642831</v>
+        <v>15.8011869436202</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.99153081276016</v>
+        <v>-6.97396743342305</v>
       </c>
     </row>
     <row r="46">
@@ -3945,10 +3945,10 @@
         <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>20.5504587155963</v>
+        <v>20.5378973105134</v>
       </c>
       <c r="G46" t="n">
-        <v>-10.1793748311386</v>
+        <v>-10.1919362362215</v>
       </c>
     </row>
     <row r="47">
@@ -3968,10 +3968,10 @@
         <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>15.8190793249914</v>
+        <v>15.8792348467389</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.61377080080231</v>
+        <v>-5.55361527905482</v>
       </c>
     </row>
     <row r="48">
@@ -3991,10 +3991,10 @@
         <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>14.55525606469</v>
+        <v>14.500537056928</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.96778540996435</v>
+        <v>-8.02250441772635</v>
       </c>
     </row>
     <row r="49">
@@ -4014,10 +4014,10 @@
         <v>9</v>
       </c>
       <c r="F49" t="n">
-        <v>24.2666666666667</v>
+        <v>24.331550802139</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.99318896909124</v>
+        <v>-7.92830483361888</v>
       </c>
     </row>
     <row r="50">
@@ -4083,10 +4083,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>17.0407840657604</v>
+        <v>17.0515659601392</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.3113926723813</v>
+        <v>-5.30061077800245</v>
       </c>
     </row>
     <row r="53">
@@ -4106,10 +4106,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>21.5181294476449</v>
+        <v>21.3660834454913</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.81296072732148</v>
+        <v>-6.9650067294751</v>
       </c>
     </row>
     <row r="54">
@@ -4129,10 +4129,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>25.1477233229058</v>
+        <v>25.0562770562771</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.88169827522191</v>
+        <v>-6.97314454185066</v>
       </c>
     </row>
     <row r="55">
@@ -4152,10 +4152,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>25.8309591642925</v>
+        <v>25.7271222511232</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.7611492840251</v>
+        <v>-8.86498619719441</v>
       </c>
     </row>
     <row r="56">
@@ -4175,10 +4175,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>23.5169864460482</v>
+        <v>23.5045742434905</v>
       </c>
       <c r="G56" t="n">
-        <v>-9.10051047350819</v>
+        <v>-9.11292267606591</v>
       </c>
     </row>
     <row r="57">
@@ -4198,10 +4198,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>19.4309101539661</v>
+        <v>19.3592233009709</v>
       </c>
       <c r="G57" t="n">
-        <v>-9.31883818507156</v>
+        <v>-9.39052503806677</v>
       </c>
     </row>
     <row r="58">
@@ -4221,10 +4221,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>23.7428389560789</v>
+        <v>23.6600063431652</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.42913556621406</v>
+        <v>-5.51196817912775</v>
       </c>
     </row>
     <row r="59">
@@ -4244,10 +4244,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>24.0499457111835</v>
+        <v>23.9848402815376</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.73850483198402</v>
+        <v>-5.80361026162989</v>
       </c>
     </row>
     <row r="60">
@@ -4270,7 +4270,7 @@
         <v>23.9713774597496</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.60449091319378</v>
+        <v>-6.60449091319377</v>
       </c>
     </row>
     <row r="61">
@@ -4290,10 +4290,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>22.0056100981767</v>
+        <v>21.9932716568545</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.1792227368328</v>
+        <v>-8.19156117815502</v>
       </c>
     </row>
     <row r="62">
@@ -4313,10 +4313,10 @@
         <v>9</v>
       </c>
       <c r="F62" t="n">
-        <v>21.1146838156484</v>
+        <v>20.9574468085106</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.98360678264215</v>
+        <v>-7.14084378977996</v>
       </c>
     </row>
     <row r="63">
@@ -4336,10 +4336,10 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>21.6825396825397</v>
+        <v>21.6619092927371</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.31746031746032</v>
+        <v>-8.33809070726292</v>
       </c>
     </row>
     <row r="64">
@@ -4359,10 +4359,10 @@
         <v>9</v>
       </c>
       <c r="F64" t="n">
-        <v>21.1160431198478</v>
+        <v>21.0626185958254</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.29748093736935</v>
+        <v>-7.35090546139174</v>
       </c>
     </row>
     <row r="65">
@@ -4382,10 +4382,10 @@
         <v>9</v>
       </c>
       <c r="F65" t="n">
-        <v>20.6470733514448</v>
+        <v>20.6623826000989</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.07213467118312</v>
+        <v>-7.05682542252906</v>
       </c>
     </row>
     <row r="66">
@@ -4405,10 +4405,10 @@
         <v>9</v>
       </c>
       <c r="F66" t="n">
-        <v>19.9526440410418</v>
+        <v>19.9055118110236</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.46842524083099</v>
+        <v>-9.5155574708492</v>
       </c>
     </row>
     <row r="67">
@@ -4428,10 +4428,10 @@
         <v>9</v>
       </c>
       <c r="F67" t="n">
-        <v>19.0713101160862</v>
+        <v>18.9634864546525</v>
       </c>
       <c r="G67" t="n">
-        <v>-11.4673077700926</v>
+        <v>-11.5751314315263</v>
       </c>
     </row>
     <row r="68">
@@ -4451,10 +4451,10 @@
         <v>9</v>
       </c>
       <c r="F68" t="n">
-        <v>17.4768518518519</v>
+        <v>17.4063400576369</v>
       </c>
       <c r="G68" t="n">
-        <v>-11.1549495216294</v>
+        <v>-11.2254613158444</v>
       </c>
     </row>
     <row r="69">
@@ -4474,10 +4474,10 @@
         <v>9</v>
       </c>
       <c r="F69" t="n">
-        <v>17.2300819061802</v>
+        <v>17.1534469977761</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.81388075566865</v>
+        <v>-6.89051566407271</v>
       </c>
     </row>
     <row r="70">
@@ -4497,10 +4497,10 @@
         <v>9</v>
       </c>
       <c r="F70" t="n">
-        <v>22.4006116207951</v>
+        <v>22.3323170731707</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.77509502549977</v>
+        <v>-7.84338957312415</v>
       </c>
     </row>
     <row r="71">
@@ -4520,10 +4520,10 @@
         <v>9</v>
       </c>
       <c r="F71" t="n">
-        <v>19.8464491362764</v>
+        <v>19.831223628692</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.05203207875158</v>
+        <v>-7.067257586336</v>
       </c>
     </row>
     <row r="72">
@@ -4543,10 +4543,10 @@
         <v>9</v>
       </c>
       <c r="F72" t="n">
-        <v>23.1907894736842</v>
+        <v>23.2162458836443</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.99410342372278</v>
+        <v>-4.96864701376265</v>
       </c>
     </row>
     <row r="73">
@@ -4566,10 +4566,10 @@
         <v>9</v>
       </c>
       <c r="F73" t="n">
-        <v>15.0403113705866</v>
+        <v>14.9861495844875</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.31030869705714</v>
+        <v>-7.36447048315621</v>
       </c>
     </row>
     <row r="74">
@@ -4589,10 +4589,10 @@
         <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>15.5133928571429</v>
+        <v>15.4530294608116</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.6651368978163</v>
+        <v>-5.7255002941476</v>
       </c>
     </row>
     <row r="75">
@@ -4612,10 +4612,10 @@
         <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>18.1120491174213</v>
+        <v>18.0152671755725</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.6167644419007</v>
+        <v>-5.71354638374952</v>
       </c>
     </row>
     <row r="76">
@@ -4635,10 +4635,10 @@
         <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>21.0853589598643</v>
+        <v>21.0496613995485</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.03490830071473</v>
+        <v>-8.07060586103053</v>
       </c>
     </row>
     <row r="77">
@@ -4658,10 +4658,10 @@
         <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>17.0420246110982</v>
+        <v>16.994674693216</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.43084911550686</v>
+        <v>-7.47819903338905</v>
       </c>
     </row>
     <row r="78">
@@ -4681,10 +4681,10 @@
         <v>9</v>
       </c>
       <c r="F78" t="n">
-        <v>18.1338028169014</v>
+        <v>18.1657848324515</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.9848412508952</v>
+        <v>-8.95285923534511</v>
       </c>
     </row>
     <row r="79">
@@ -4704,10 +4704,10 @@
         <v>9</v>
       </c>
       <c r="F79" t="n">
-        <v>16.8567355666429</v>
+        <v>16.8627450980392</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.26293838667313</v>
+        <v>-6.25692885527683</v>
       </c>
     </row>
     <row r="80">
@@ -4727,10 +4727,10 @@
         <v>9</v>
       </c>
       <c r="F80" t="n">
-        <v>17.1980676328502</v>
+        <v>17.1153846153846</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.86313671068381</v>
+        <v>-8.94581972814944</v>
       </c>
     </row>
     <row r="81">
@@ -4750,10 +4750,10 @@
         <v>9</v>
       </c>
       <c r="F81" t="n">
-        <v>23.3077204537139</v>
+        <v>23.1048240841494</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.24783510184169</v>
+        <v>-7.45073147140612</v>
       </c>
     </row>
     <row r="82">
@@ -4773,10 +4773,10 @@
         <v>9</v>
       </c>
       <c r="F82" t="n">
-        <v>25.9795570698467</v>
+        <v>25.7383966244726</v>
       </c>
       <c r="G82" t="n">
-        <v>-11.8481582859586</v>
+        <v>-12.0893187313327</v>
       </c>
     </row>
     <row r="83">
@@ -4796,10 +4796,10 @@
         <v>9</v>
       </c>
       <c r="F83" t="n">
-        <v>16.8549905838041</v>
+        <v>16.9147176943066</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.12356692106915</v>
+        <v>-5.06383981056666</v>
       </c>
     </row>
     <row r="84">
@@ -4819,10 +4819,10 @@
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>21.0648918469218</v>
+        <v>20.9950248756219</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.79507939519744</v>
+        <v>-4.86494636649735</v>
       </c>
     </row>
     <row r="85">
@@ -4842,10 +4842,10 @@
         <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>22.8571428571429</v>
+        <v>22.7927363807138</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.04649407167281</v>
+        <v>-7.11090054810182</v>
       </c>
     </row>
     <row r="86">
@@ -4865,10 +4865,10 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>19.8965517241379</v>
+        <v>19.8281786941581</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.39699381078691</v>
+        <v>-8.46536684076677</v>
       </c>
     </row>
     <row r="87">
@@ -4888,10 +4888,10 @@
         <v>9</v>
       </c>
       <c r="F87" t="n">
-        <v>23.7959329290046</v>
+        <v>23.762023512647</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.98441389180461</v>
+        <v>-7.0183233081623</v>
       </c>
     </row>
     <row r="88">
@@ -4911,10 +4911,10 @@
         <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>20.6521739130435</v>
+        <v>20.5506391347099</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.93606138107417</v>
+        <v>-5.03759615940771</v>
       </c>
     </row>
     <row r="89">
@@ -4934,10 +4934,10 @@
         <v>9</v>
       </c>
       <c r="F89" t="n">
-        <v>20.4228520017994</v>
+        <v>20.5058717253839</v>
       </c>
       <c r="G89" t="n">
-        <v>-8.00808228519213</v>
+        <v>-7.92506256160759</v>
       </c>
     </row>
     <row r="90">
@@ -4957,10 +4957,10 @@
         <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>21.3992792344973</v>
+        <v>21.4820359281437</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.40305950560075</v>
+        <v>-2.32030281195436</v>
       </c>
     </row>
     <row r="91">
@@ -4980,10 +4980,10 @@
         <v>9</v>
       </c>
       <c r="F91" t="n">
-        <v>19.1904047976012</v>
+        <v>19.2336589030804</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.72422934874026</v>
+        <v>-6.68097524326107</v>
       </c>
     </row>
     <row r="92">
@@ -5003,10 +5003,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>19.0710209258085</v>
+        <v>19.0498812351544</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.98820177622728</v>
+        <v>-5.00934146688138</v>
       </c>
     </row>
     <row r="93">
@@ -5026,10 +5026,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>18.9855072463768</v>
+        <v>19.0130624092888</v>
       </c>
       <c r="G93" t="n">
-        <v>-14.2077700645476</v>
+        <v>-14.1802149016355</v>
       </c>
     </row>
     <row r="94">
@@ -5049,10 +5049,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>20.229372411596</v>
+        <v>20.1907790143084</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.99609867352416</v>
+        <v>-7.03469207081178</v>
       </c>
     </row>
     <row r="95">
@@ -5072,10 +5072,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>26.0898282694848</v>
+        <v>26.158940397351</v>
       </c>
       <c r="G95" t="n">
-        <v>-12.0238668209545</v>
+        <v>-11.9547546930883</v>
       </c>
     </row>
     <row r="96">
@@ -5095,10 +5095,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>17.8683385579937</v>
+        <v>17.8013741411618</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.9020599239797</v>
+        <v>-4.96902434081166</v>
       </c>
     </row>
     <row r="97">
@@ -5118,10 +5118,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>24.2068965517241</v>
+        <v>24.1902136457615</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.63748385173407</v>
+        <v>-7.65416675769667</v>
       </c>
     </row>
     <row r="98">
@@ -5141,10 +5141,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>19.8907265209687</v>
+        <v>19.8409191338931</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.24191087540834</v>
+        <v>-4.29171826248398</v>
       </c>
     </row>
     <row r="99">
@@ -5164,10 +5164,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>21.2720086237873</v>
+        <v>21.2186379928315</v>
       </c>
       <c r="G99" t="n">
-        <v>-9.5364400287983</v>
+        <v>-9.58981065975404</v>
       </c>
     </row>
     <row r="100">
@@ -5187,10 +5187,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>20.7718501702611</v>
+        <v>20.6779661016949</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.17171642116105</v>
+        <v>-4.26560048972721</v>
       </c>
     </row>
     <row r="101">
@@ -5210,10 +5210,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>18.2316655243317</v>
+        <v>17.948717948718</v>
       </c>
       <c r="G101" t="n">
-        <v>-8.5070245499424</v>
+        <v>-8.78997212555619</v>
       </c>
     </row>
     <row r="102">
@@ -5233,10 +5233,10 @@
         <v>9</v>
       </c>
       <c r="F102" t="n">
-        <v>24.0220385674931</v>
+        <v>24.0485383342526</v>
       </c>
       <c r="G102" t="n">
-        <v>-8.49696251828322</v>
+        <v>-8.47046275152371</v>
       </c>
     </row>
     <row r="103">
@@ -5256,10 +5256,10 @@
         <v>9</v>
       </c>
       <c r="F103" t="n">
-        <v>19.4180190263011</v>
+        <v>19.3530395984384</v>
       </c>
       <c r="G103" t="n">
-        <v>-11.8569952675812</v>
+        <v>-11.9219746954438</v>
       </c>
     </row>
     <row r="104">
@@ -5279,10 +5279,10 @@
         <v>9</v>
       </c>
       <c r="F104" t="n">
-        <v>23.3271621264216</v>
+        <v>23.3025099075297</v>
       </c>
       <c r="G104" t="n">
-        <v>-7.4745256372915</v>
+        <v>-7.49917785618336</v>
       </c>
     </row>
     <row r="105">
@@ -5302,10 +5302,10 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>18.0846691327579</v>
+        <v>18.0698151950719</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.5625800581806</v>
+        <v>-7.57743399586664</v>
       </c>
     </row>
     <row r="106">
@@ -5325,10 +5325,10 @@
         <v>9</v>
       </c>
       <c r="F106" t="n">
-        <v>22.4022543148996</v>
+        <v>22.3157894736842</v>
       </c>
       <c r="G106" t="n">
-        <v>-9.09957718693189</v>
+        <v>-9.18604202814729</v>
       </c>
     </row>
     <row r="107">
@@ -5348,10 +5348,10 @@
         <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>21.6216216216216</v>
+        <v>21.7785843920145</v>
       </c>
       <c r="G107" t="n">
-        <v>-9.16040832846157</v>
+        <v>-9.00344555806867</v>
       </c>
     </row>
     <row r="108">
@@ -5371,10 +5371,10 @@
         <v>9</v>
       </c>
       <c r="F108" t="n">
-        <v>11.0195108546304</v>
+        <v>10.9652720809407</v>
       </c>
       <c r="G108" t="n">
-        <v>-6.72460599687082</v>
+        <v>-6.77884477056056</v>
       </c>
     </row>
     <row r="109">
@@ -5394,10 +5394,10 @@
         <v>9</v>
       </c>
       <c r="F109" t="n">
-        <v>5.05293551491819</v>
+        <v>5.05536831969186</v>
       </c>
       <c r="G109" t="n">
-        <v>-5.12906153377832</v>
+        <v>-5.12662872900464</v>
       </c>
     </row>
     <row r="110">
@@ -5417,10 +5417,10 @@
         <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>4.82180293501048</v>
+        <v>4.81171548117155</v>
       </c>
       <c r="G110" t="n">
-        <v>-3.69925485147336</v>
+        <v>-3.70934230531229</v>
       </c>
     </row>
     <row r="111">
@@ -5440,10 +5440,10 @@
         <v>9</v>
       </c>
       <c r="F111" t="n">
-        <v>18.1968243986795</v>
+        <v>18.1255872220482</v>
       </c>
       <c r="G111" t="n">
-        <v>-6.13302388368828</v>
+        <v>-6.20426106031951</v>
       </c>
     </row>
     <row r="112">
@@ -5463,10 +5463,10 @@
         <v>9</v>
       </c>
       <c r="F112" t="n">
-        <v>18.1818181818182</v>
+        <v>18.2978723404255</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.23484848484848</v>
+        <v>-7.11879432624113</v>
       </c>
     </row>
     <row r="113">
@@ -5486,10 +5486,10 @@
         <v>9</v>
       </c>
       <c r="F113" t="n">
-        <v>19.8972099853157</v>
+        <v>19.8534798534799</v>
       </c>
       <c r="G113" t="n">
-        <v>-11.4077753519277</v>
+        <v>-11.4515054837636</v>
       </c>
     </row>
     <row r="114">
@@ -5509,10 +5509,10 @@
         <v>9</v>
       </c>
       <c r="F114" t="n">
-        <v>17.9005524861878</v>
+        <v>17.831590533847</v>
       </c>
       <c r="G114" t="n">
-        <v>-8.78882854731584</v>
+        <v>-8.85779049965669</v>
       </c>
     </row>
     <row r="115">
@@ -5532,10 +5532,10 @@
         <v>9</v>
       </c>
       <c r="F115" t="n">
-        <v>15.7070989379542</v>
+        <v>15.7158836689038</v>
       </c>
       <c r="G115" t="n">
-        <v>-6.69759314415727</v>
+        <v>-6.68880841320763</v>
       </c>
     </row>
     <row r="116">
@@ -5555,10 +5555,10 @@
         <v>9</v>
       </c>
       <c r="F116" t="n">
-        <v>22.1231766612642</v>
+        <v>22.0873786407767</v>
       </c>
       <c r="G116" t="n">
-        <v>-12.2915300162162</v>
+        <v>-12.3273280367037</v>
       </c>
     </row>
     <row r="117">
@@ -5578,10 +5578,10 @@
         <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>23.2662192393736</v>
+        <v>23.0982787340366</v>
       </c>
       <c r="G117" t="n">
-        <v>-10.323372718048</v>
+        <v>-10.491313223385</v>
       </c>
     </row>
     <row r="118">
@@ -5601,10 +5601,10 @@
         <v>9</v>
       </c>
       <c r="F118" t="n">
-        <v>15.9305993690852</v>
+        <v>15.8389963408259</v>
       </c>
       <c r="G118" t="n">
-        <v>-9.26380187508279</v>
+        <v>-9.35540490334203</v>
       </c>
     </row>
     <row r="119">
@@ -5624,10 +5624,10 @@
         <v>9</v>
       </c>
       <c r="F119" t="n">
-        <v>18.9847715736041</v>
+        <v>18.9335133310834</v>
       </c>
       <c r="G119" t="n">
-        <v>-8.69943895271173</v>
+        <v>-8.75069719523243</v>
       </c>
     </row>
     <row r="120">
@@ -5647,10 +5647,10 @@
         <v>9</v>
       </c>
       <c r="F120" t="n">
-        <v>20.9575429087624</v>
+        <v>20.9670131043832</v>
       </c>
       <c r="G120" t="n">
-        <v>-12.4866376138029</v>
+        <v>-12.4771674181821</v>
       </c>
     </row>
     <row r="121">
@@ -5670,10 +5670,10 @@
         <v>9</v>
       </c>
       <c r="F121" t="n">
-        <v>22.7820372398686</v>
+        <v>22.8320526893524</v>
       </c>
       <c r="G121" t="n">
-        <v>-9.07904241283057</v>
+        <v>-9.02902696334677</v>
       </c>
     </row>
     <row r="122">
@@ -5693,10 +5693,10 @@
         <v>9</v>
       </c>
       <c r="F122" t="n">
-        <v>16.0066926938093</v>
+        <v>15.8651188501935</v>
       </c>
       <c r="G122" t="n">
-        <v>-9.16651746785356</v>
+        <v>-9.30809131146934</v>
       </c>
     </row>
     <row r="123">
@@ -5716,10 +5716,10 @@
         <v>9</v>
       </c>
       <c r="F123" t="n">
-        <v>16.2832773326441</v>
+        <v>16.2287480680062</v>
       </c>
       <c r="G123" t="n">
-        <v>-5.40184284018875</v>
+        <v>-5.45637210482666</v>
       </c>
     </row>
     <row r="124">
@@ -5739,10 +5739,10 @@
         <v>9</v>
       </c>
       <c r="F124" t="n">
-        <v>15.9354838709677</v>
+        <v>15.8612939476642</v>
       </c>
       <c r="G124" t="n">
-        <v>-6.68187032533382</v>
+        <v>-6.75606024863741</v>
       </c>
     </row>
     <row r="125">
@@ -5762,10 +5762,10 @@
         <v>9</v>
       </c>
       <c r="F125" t="n">
-        <v>16.1071428571429</v>
+        <v>15.9872385678837</v>
       </c>
       <c r="G125" t="n">
-        <v>-9.13145735494622</v>
+        <v>-9.25136164420535</v>
       </c>
     </row>
     <row r="126">
@@ -5785,10 +5785,10 @@
         <v>9</v>
       </c>
       <c r="F126" t="n">
-        <v>19.6547884187082</v>
+        <v>19.5459579180509</v>
       </c>
       <c r="G126" t="n">
-        <v>-5.70319127408009</v>
+        <v>-5.8120217747374</v>
       </c>
     </row>
     <row r="127">
@@ -5808,10 +5808,10 @@
         <v>9</v>
       </c>
       <c r="F127" t="n">
-        <v>16.3367997316337</v>
+        <v>16.2685819275096</v>
       </c>
       <c r="G127" t="n">
-        <v>-7.5795436652292</v>
+        <v>-7.64776146935327</v>
       </c>
     </row>
     <row r="128">
@@ -5831,10 +5831,10 @@
         <v>9</v>
       </c>
       <c r="F128" t="n">
-        <v>18.9157566302652</v>
+        <v>18.8569206842924</v>
       </c>
       <c r="G128" t="n">
-        <v>-7.10843377160759</v>
+        <v>-7.16726971758043</v>
       </c>
     </row>
     <row r="129">
@@ -5854,10 +5854,10 @@
         <v>9</v>
       </c>
       <c r="F129" t="n">
-        <v>18.2876142975894</v>
+        <v>18.3028286189684</v>
       </c>
       <c r="G129" t="n">
-        <v>-6.9217659369165</v>
+        <v>-6.90655161553748</v>
       </c>
     </row>
     <row r="130">
@@ -5877,10 +5877,10 @@
         <v>9</v>
       </c>
       <c r="F130" t="n">
-        <v>15.041067761807</v>
+        <v>14.9948822927329</v>
       </c>
       <c r="G130" t="n">
-        <v>-6.17514845440924</v>
+        <v>-6.22133392348336</v>
       </c>
     </row>
     <row r="131">
@@ -5900,10 +5900,10 @@
         <v>9</v>
       </c>
       <c r="F131" t="n">
-        <v>19.2065160273253</v>
+        <v>19.1211090766414</v>
       </c>
       <c r="G131" t="n">
-        <v>-6.41376444732413</v>
+        <v>-6.49917139800802</v>
       </c>
     </row>
     <row r="132">
@@ -5923,10 +5923,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>16.2275064267352</v>
+        <v>16.1548304542546</v>
       </c>
       <c r="G132" t="n">
-        <v>-5.22186270946666</v>
+        <v>-5.29453868194724</v>
       </c>
     </row>
     <row r="133">
@@ -5946,10 +5946,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>15.7563025210084</v>
+        <v>15.7397691500525</v>
       </c>
       <c r="G133" t="n">
-        <v>-11.014083745086</v>
+        <v>-11.030617116042</v>
       </c>
     </row>
     <row r="134">
@@ -5969,10 +5969,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>16.837361736993</v>
+        <v>16.7277167277167</v>
       </c>
       <c r="G134" t="n">
-        <v>-5.9074009821177</v>
+        <v>-6.017045991394</v>
       </c>
     </row>
     <row r="135">
@@ -5992,10 +5992,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>14.3730886850153</v>
+        <v>14.3804181540031</v>
       </c>
       <c r="G135" t="n">
-        <v>-8.96881362860939</v>
+        <v>-8.96148415962162</v>
       </c>
     </row>
     <row r="136">
@@ -6015,10 +6015,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>18.6884458323325</v>
+        <v>18.6213499281953</v>
       </c>
       <c r="G136" t="n">
-        <v>-3.32293936690853</v>
+        <v>-3.39003527104568</v>
       </c>
     </row>
     <row r="137">
@@ -6038,10 +6038,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>19.685746352413</v>
+        <v>19.5890104981014</v>
       </c>
       <c r="G137" t="n">
-        <v>-6.86551264039273</v>
+        <v>-6.96224849470434</v>
       </c>
     </row>
     <row r="138">
@@ -6061,10 +6061,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>18.6305732484076</v>
+        <v>18.6009538950715</v>
       </c>
       <c r="G138" t="n">
-        <v>-9.88821820332412</v>
+        <v>-9.91783755666022</v>
       </c>
     </row>
     <row r="139">
@@ -6084,10 +6084,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>11.3271920846128</v>
+        <v>11.3387978142077</v>
       </c>
       <c r="G139" t="n">
-        <v>-3.24770670081234</v>
+        <v>-3.23610097121745</v>
       </c>
     </row>
     <row r="140">
@@ -6107,10 +6107,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>19.6746616005699</v>
+        <v>19.7191479233607</v>
       </c>
       <c r="G140" t="n">
-        <v>-5.7510440210769</v>
+        <v>-5.70655769828613</v>
       </c>
     </row>
     <row r="141">
@@ -6130,10 +6130,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>16.7643319144231</v>
+        <v>16.7388844423592</v>
       </c>
       <c r="G141" t="n">
-        <v>-2.70898396645088</v>
+        <v>-2.73443143851483</v>
       </c>
     </row>
     <row r="142">
@@ -6153,10 +6153,10 @@
         <v>9</v>
       </c>
       <c r="F142" t="n">
-        <v>13.1427072402938</v>
+        <v>13.1254912234739</v>
       </c>
       <c r="G142" t="n">
-        <v>-6.47738123225368</v>
+        <v>-6.49459724907356</v>
       </c>
     </row>
     <row r="143">
@@ -6176,10 +6176,10 @@
         <v>9</v>
       </c>
       <c r="F143" t="n">
-        <v>16.9008535784636</v>
+        <v>17.0125578321216</v>
       </c>
       <c r="G143" t="n">
-        <v>-5.04159246470191</v>
+        <v>-4.92988821104386</v>
       </c>
     </row>
     <row r="144">
@@ -6199,10 +6199,10 @@
         <v>9</v>
       </c>
       <c r="F144" t="n">
-        <v>7.84844384303112</v>
+        <v>7.88579197824609</v>
       </c>
       <c r="G144" t="n">
-        <v>-2.53023778389735</v>
+        <v>-2.49288964868238</v>
       </c>
     </row>
     <row r="145">
@@ -6222,10 +6222,10 @@
         <v>9</v>
       </c>
       <c r="F145" t="n">
-        <v>8.8713439799031</v>
+        <v>8.87007068786106</v>
       </c>
       <c r="G145" t="n">
-        <v>-2.90758520835251</v>
+        <v>-2.90885850039455</v>
       </c>
     </row>
     <row r="146">
@@ -6245,10 +6245,10 @@
         <v>9</v>
       </c>
       <c r="F146" t="n">
-        <v>7.26444972288203</v>
+        <v>7.25439810239178</v>
       </c>
       <c r="G146" t="n">
-        <v>-3.53987200580945</v>
+        <v>-3.5499236262997</v>
       </c>
     </row>
     <row r="147">
@@ -6268,10 +6268,10 @@
         <v>9</v>
       </c>
       <c r="F147" t="n">
-        <v>6.7922772737846</v>
+        <v>6.80335507921715</v>
       </c>
       <c r="G147" t="n">
-        <v>-3.78756841244406</v>
+        <v>-3.77649060701152</v>
       </c>
     </row>
     <row r="148">
@@ -6291,10 +6291,10 @@
         <v>9</v>
       </c>
       <c r="F148" t="n">
-        <v>4.88522660388464</v>
+        <v>4.87089201877934</v>
       </c>
       <c r="G148" t="n">
-        <v>-4.42123456979645</v>
+        <v>-4.43556915490175</v>
       </c>
     </row>
     <row r="149">
@@ -6314,10 +6314,10 @@
         <v>9</v>
       </c>
       <c r="F149" t="n">
-        <v>5.71017274472169</v>
+        <v>5.67748091603053</v>
       </c>
       <c r="G149" t="n">
-        <v>-2.05825872484783</v>
+        <v>-2.09095055353899</v>
       </c>
     </row>
     <row r="150">
@@ -6337,10 +6337,10 @@
         <v>9</v>
       </c>
       <c r="F150" t="n">
-        <v>6.41633248268319</v>
+        <v>6.3953488372093</v>
       </c>
       <c r="G150" t="n">
-        <v>-3.66770113076219</v>
+        <v>-3.68868477623607</v>
       </c>
     </row>
     <row r="151">
@@ -6360,10 +6360,10 @@
         <v>9</v>
       </c>
       <c r="F151" t="n">
-        <v>7.6714188730482</v>
+        <v>7.66101694915254</v>
       </c>
       <c r="G151" t="n">
-        <v>-5.22973645429455</v>
+        <v>-5.2401383781902</v>
       </c>
     </row>
     <row r="152">
@@ -6406,10 +6406,10 @@
         <v>9</v>
       </c>
       <c r="F153" t="n">
-        <v>6.99878983461073</v>
+        <v>6.98751510269835</v>
       </c>
       <c r="G153" t="n">
-        <v>-5.23113270921316</v>
+        <v>-5.24240744112554</v>
       </c>
     </row>
     <row r="154">
@@ -6429,10 +6429,10 @@
         <v>9</v>
       </c>
       <c r="F154" t="n">
-        <v>10.7281041153711</v>
+        <v>10.7167955024596</v>
       </c>
       <c r="G154" t="n">
-        <v>-5.67049728323031</v>
+        <v>-5.6818058961418</v>
       </c>
     </row>
     <row r="155">
@@ -6452,10 +6452,10 @@
         <v>9</v>
       </c>
       <c r="F155" t="n">
-        <v>5.33384497313891</v>
+        <v>5.32771176696052</v>
       </c>
       <c r="G155" t="n">
-        <v>-3.64389927431488</v>
+        <v>-3.65003248049327</v>
       </c>
     </row>
     <row r="156">
@@ -6475,10 +6475,10 @@
         <v>9</v>
       </c>
       <c r="F156" t="n">
-        <v>5.703125</v>
+        <v>5.68978955572876</v>
       </c>
       <c r="G156" t="n">
-        <v>-3.45924962727026</v>
+        <v>-3.4725850715415</v>
       </c>
     </row>
     <row r="157">
@@ -6498,10 +6498,10 @@
         <v>9</v>
       </c>
       <c r="F157" t="n">
-        <v>5.09344082081348</v>
+        <v>5.0692924872356</v>
       </c>
       <c r="G157" t="n">
-        <v>-3.90146085435039</v>
+        <v>-3.92560918792828</v>
       </c>
     </row>
     <row r="158">
@@ -6521,10 +6521,10 @@
         <v>9</v>
       </c>
       <c r="F158" t="n">
-        <v>9.70952124798279</v>
+        <v>9.71474703982777</v>
       </c>
       <c r="G158" t="n">
-        <v>-6.80448737270687</v>
+        <v>-6.79926158086188</v>
       </c>
     </row>
     <row r="159">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="F159" t="n">
-        <v>8.37455423904291</v>
+        <v>8.37840948325469</v>
       </c>
       <c r="G159" t="n">
-        <v>-3.23479617678087</v>
+        <v>-3.23094093256909</v>
       </c>
     </row>
     <row r="160">
@@ -6567,10 +6567,10 @@
         <v>9</v>
       </c>
       <c r="F160" t="n">
-        <v>8.15554026152787</v>
+        <v>8.16959669079628</v>
       </c>
       <c r="G160" t="n">
-        <v>-6.2610133341302</v>
+        <v>-6.2469569048618</v>
       </c>
     </row>
     <row r="161">
@@ -6590,10 +6590,10 @@
         <v>9</v>
       </c>
       <c r="F161" t="n">
-        <v>8.86358562179058</v>
+        <v>8.82516394353673</v>
       </c>
       <c r="G161" t="n">
-        <v>-3.34538655311005</v>
+        <v>-3.38380823136389</v>
       </c>
     </row>
     <row r="162">
@@ -6613,10 +6613,10 @@
         <v>9</v>
       </c>
       <c r="F162" t="n">
-        <v>5.42394014962594</v>
+        <v>5.40708514605345</v>
       </c>
       <c r="G162" t="n">
-        <v>-2.04547388772114</v>
+        <v>-2.06232889129362</v>
       </c>
     </row>
     <row r="163">
@@ -6636,10 +6636,10 @@
         <v>9</v>
       </c>
       <c r="F163" t="n">
-        <v>11.5699100572363</v>
+        <v>11.5888615888616</v>
       </c>
       <c r="G163" t="n">
-        <v>-6.39518147107361</v>
+        <v>-6.37622993944833</v>
       </c>
     </row>
     <row r="164">
@@ -6659,10 +6659,10 @@
         <v>9</v>
       </c>
       <c r="F164" t="n">
-        <v>11.25</v>
+        <v>11.2438891906573</v>
       </c>
       <c r="G164" t="n">
-        <v>-9.1288748564868</v>
+        <v>-9.13498566582954</v>
       </c>
     </row>
     <row r="165">
@@ -6682,10 +6682,10 @@
         <v>9</v>
       </c>
       <c r="F165" t="n">
-        <v>10.6850495476088</v>
+        <v>10.630090012859</v>
       </c>
       <c r="G165" t="n">
-        <v>-5.46707573203327</v>
+        <v>-5.52203526678308</v>
       </c>
     </row>
     <row r="166">
@@ -6705,10 +6705,10 @@
         <v>9</v>
       </c>
       <c r="F166" t="n">
-        <v>12.0603015075377</v>
+        <v>11.9494446572195</v>
       </c>
       <c r="G166" t="n">
-        <v>-10.3911548031419</v>
+        <v>-10.5020116534602</v>
       </c>
     </row>
     <row r="167">
@@ -6728,10 +6728,10 @@
         <v>9</v>
       </c>
       <c r="F167" t="n">
-        <v>12.7337675982349</v>
+        <v>12.6632535785184</v>
       </c>
       <c r="G167" t="n">
-        <v>-7.12015006444768</v>
+        <v>-7.19066408416416</v>
       </c>
     </row>
     <row r="168">
@@ -6751,10 +6751,10 @@
         <v>9</v>
       </c>
       <c r="F168" t="n">
-        <v>12.0942812982998</v>
+        <v>12.0523681170581</v>
       </c>
       <c r="G168" t="n">
-        <v>-8.6078978784556</v>
+        <v>-8.6498110596973</v>
       </c>
     </row>
     <row r="169">
@@ -6774,10 +6774,10 @@
         <v>9</v>
       </c>
       <c r="F169" t="n">
-        <v>13.6271186440678</v>
+        <v>13.5658042744657</v>
       </c>
       <c r="G169" t="n">
-        <v>-6.45010143315228</v>
+        <v>-6.51141580275438</v>
       </c>
     </row>
     <row r="170">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="F170" t="n">
-        <v>10.1618520794919</v>
+        <v>10.1390024529845</v>
       </c>
       <c r="G170" t="n">
-        <v>-7.49701079676227</v>
+        <v>-7.51986042326972</v>
       </c>
     </row>
     <row r="171">
@@ -6820,10 +6820,10 @@
         <v>9</v>
       </c>
       <c r="F171" t="n">
-        <v>14.0660592255125</v>
+        <v>14.0221402214022</v>
       </c>
       <c r="G171" t="n">
-        <v>-7.56982467950066</v>
+        <v>-7.61374368361098</v>
       </c>
     </row>
     <row r="172">
@@ -6843,10 +6843,10 @@
         <v>9</v>
       </c>
       <c r="F172" t="n">
-        <v>11.7445139144293</v>
+        <v>11.6829268292683</v>
       </c>
       <c r="G172" t="n">
-        <v>-6.39674054757985</v>
+        <v>-6.45832763274089</v>
       </c>
     </row>
     <row r="173">
@@ -6866,10 +6866,10 @@
         <v>9</v>
       </c>
       <c r="F173" t="n">
-        <v>14.0400545244836</v>
+        <v>13.9828738512949</v>
       </c>
       <c r="G173" t="n">
-        <v>-7.16178435467578</v>
+        <v>-7.21896502786446</v>
       </c>
     </row>
     <row r="174">
@@ -6889,10 +6889,10 @@
         <v>9</v>
       </c>
       <c r="F174" t="n">
-        <v>14.9665222528555</v>
+        <v>14.8902821316614</v>
       </c>
       <c r="G174" t="n">
-        <v>-10.1582697604557</v>
+        <v>-10.2345098816497</v>
       </c>
     </row>
     <row r="175">
@@ -6912,10 +6912,10 @@
         <v>9</v>
       </c>
       <c r="F175" t="n">
-        <v>15.9221902017291</v>
+        <v>15.751960085531</v>
       </c>
       <c r="G175" t="n">
-        <v>-9.97544157825562</v>
+        <v>-10.1456716944537</v>
       </c>
     </row>
     <row r="176">
@@ -6935,10 +6935,10 @@
         <v>9</v>
       </c>
       <c r="F176" t="n">
-        <v>14.3530997304582</v>
+        <v>14.2953020134228</v>
       </c>
       <c r="G176" t="n">
-        <v>-6.06297925402697</v>
+        <v>-6.12077697106237</v>
       </c>
     </row>
     <row r="177">
@@ -6958,10 +6958,10 @@
         <v>9</v>
       </c>
       <c r="F177" t="n">
-        <v>15.2819993245525</v>
+        <v>15.2382555985856</v>
       </c>
       <c r="G177" t="n">
-        <v>-6.22568199020275</v>
+        <v>-6.26942571616965</v>
       </c>
     </row>
     <row r="178">
@@ -6981,10 +6981,10 @@
         <v>9</v>
       </c>
       <c r="F178" t="n">
-        <v>13.9934829833454</v>
+        <v>13.9656729900632</v>
       </c>
       <c r="G178" t="n">
-        <v>-6.97308678409646</v>
+        <v>-7.00089677737863</v>
       </c>
     </row>
     <row r="179">
@@ -7004,10 +7004,10 @@
         <v>9</v>
       </c>
       <c r="F179" t="n">
-        <v>18.3274021352313</v>
+        <v>18.3143669985775</v>
       </c>
       <c r="G179" t="n">
-        <v>-5.74253834095916</v>
+        <v>-5.75557347761295</v>
       </c>
     </row>
     <row r="180">
@@ -7027,10 +7027,10 @@
         <v>9</v>
       </c>
       <c r="F180" t="n">
-        <v>12.7136021872864</v>
+        <v>12.68758526603</v>
       </c>
       <c r="G180" t="n">
-        <v>-7.26968937495253</v>
+        <v>-7.29570629620892</v>
       </c>
     </row>
     <row r="181">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="F181" t="n">
-        <v>18.473527389411</v>
+        <v>18.3599088838269</v>
       </c>
       <c r="G181" t="n">
-        <v>-4.76750756292676</v>
+        <v>-4.88112606851084</v>
       </c>
     </row>
     <row r="182">
@@ -7073,10 +7073,10 @@
         <v>9</v>
       </c>
       <c r="F182" t="n">
-        <v>14.1951391334977</v>
+        <v>14.1155866900175</v>
       </c>
       <c r="G182" t="n">
-        <v>-5.67641356767343</v>
+        <v>-5.75596601115362</v>
       </c>
     </row>
     <row r="183">
@@ -7096,10 +7096,10 @@
         <v>9</v>
       </c>
       <c r="F183" t="n">
-        <v>13.912333242581</v>
+        <v>13.8632664134563</v>
       </c>
       <c r="G183" t="n">
-        <v>-6.3198873669981</v>
+        <v>-6.36895419612278</v>
       </c>
     </row>
     <row r="184">
@@ -7119,10 +7119,10 @@
         <v>9</v>
       </c>
       <c r="F184" t="n">
-        <v>15.995115995116</v>
+        <v>15.9440133881028</v>
       </c>
       <c r="G184" t="n">
-        <v>-6.18034531922522</v>
+        <v>-6.23144792623837</v>
       </c>
     </row>
     <row r="185">
@@ -7142,10 +7142,10 @@
         <v>9</v>
       </c>
       <c r="F185" t="n">
-        <v>15.4447033027271</v>
+        <v>15.432014240723</v>
       </c>
       <c r="G185" t="n">
-        <v>-6.06942733549108</v>
+        <v>-6.08211639749523</v>
       </c>
     </row>
     <row r="186">
@@ -7165,10 +7165,10 @@
         <v>9</v>
       </c>
       <c r="F186" t="n">
-        <v>16.6374781085814</v>
+        <v>16.6171068742347</v>
       </c>
       <c r="G186" t="n">
-        <v>-8.36252189141856</v>
+        <v>-8.38289312576526</v>
       </c>
     </row>
     <row r="187">
@@ -7188,10 +7188,10 @@
         <v>9</v>
       </c>
       <c r="F187" t="n">
-        <v>14.8054573016675</v>
+        <v>14.7736319728252</v>
       </c>
       <c r="G187" t="n">
-        <v>-4.14693097615728</v>
+        <v>-4.17875630499956</v>
       </c>
     </row>
     <row r="188">
@@ -7211,10 +7211,10 @@
         <v>9</v>
       </c>
       <c r="F188" t="n">
-        <v>15.0902527075812</v>
+        <v>15.061253903435</v>
       </c>
       <c r="G188" t="n">
-        <v>-7.60122903901863</v>
+        <v>-7.63022784316483</v>
       </c>
     </row>
     <row r="189">
@@ -7234,10 +7234,10 @@
         <v>9</v>
       </c>
       <c r="F189" t="n">
-        <v>15.0977717144156</v>
+        <v>15.046453659642</v>
       </c>
       <c r="G189" t="n">
-        <v>-7.34554156647283</v>
+        <v>-7.39685962124651</v>
       </c>
     </row>
     <row r="190">
@@ -7257,10 +7257,10 @@
         <v>9</v>
       </c>
       <c r="F190" t="n">
-        <v>15.7301788480496</v>
+        <v>15.7191106107515</v>
       </c>
       <c r="G190" t="n">
-        <v>-6.11461540768089</v>
+        <v>-6.12568364497899</v>
       </c>
     </row>
     <row r="191">
@@ -7280,10 +7280,10 @@
         <v>9</v>
       </c>
       <c r="F191" t="n">
-        <v>15.2312261349173</v>
+        <v>15.2830991911452</v>
       </c>
       <c r="G191" t="n">
-        <v>-5.87988497619384</v>
+        <v>-5.82801191996594</v>
       </c>
     </row>
     <row r="192">
@@ -7303,10 +7303,10 @@
         <v>9</v>
       </c>
       <c r="F192" t="n">
-        <v>15.1788228667981</v>
+        <v>15.1319483436272</v>
       </c>
       <c r="G192" t="n">
-        <v>-7.5743372943354</v>
+        <v>-7.62121181750631</v>
       </c>
     </row>
     <row r="193">
@@ -7326,10 +7326,10 @@
         <v>9</v>
       </c>
       <c r="F193" t="n">
-        <v>17.5276752767528</v>
+        <v>17.5138267052937</v>
       </c>
       <c r="G193" t="n">
-        <v>-4.09817151845306</v>
+        <v>-4.11202008991219</v>
       </c>
     </row>
     <row r="194">
@@ -7349,10 +7349,10 @@
         <v>9</v>
       </c>
       <c r="F194" t="n">
-        <v>11.707650273224</v>
+        <v>11.6884888161484</v>
       </c>
       <c r="G194" t="n">
-        <v>-8.26158479879386</v>
+        <v>-8.28074625586951</v>
       </c>
     </row>
     <row r="195">
@@ -7372,10 +7372,10 @@
         <v>9</v>
       </c>
       <c r="F195" t="n">
-        <v>15.8226940180749</v>
+        <v>15.6965988330724</v>
       </c>
       <c r="G195" t="n">
-        <v>-7.60086563714968</v>
+        <v>-7.72696082215212</v>
       </c>
     </row>
     <row r="196">
@@ -7395,10 +7395,10 @@
         <v>9</v>
       </c>
       <c r="F196" t="n">
-        <v>14.2719072164948</v>
+        <v>14.216944801027</v>
       </c>
       <c r="G196" t="n">
-        <v>-6.71670965548395</v>
+        <v>-6.77167207095184</v>
       </c>
     </row>
     <row r="197">
@@ -7418,10 +7418,10 @@
         <v>9</v>
       </c>
       <c r="F197" t="n">
-        <v>13.8590203106332</v>
+        <v>13.802221047065</v>
       </c>
       <c r="G197" t="n">
-        <v>-8.61528904476516</v>
+        <v>-8.67208830833333</v>
       </c>
     </row>
     <row r="198">
@@ -7441,10 +7441,10 @@
         <v>9</v>
       </c>
       <c r="F198" t="n">
-        <v>14.6100691016782</v>
+        <v>14.5788868822853</v>
       </c>
       <c r="G198" t="n">
-        <v>-4.50711095548282</v>
+        <v>-4.53829317487567</v>
       </c>
     </row>
     <row r="199">
@@ -7464,10 +7464,10 @@
         <v>9</v>
       </c>
       <c r="F199" t="n">
-        <v>15.9634476534296</v>
+        <v>15.9562471808751</v>
       </c>
       <c r="G199" t="n">
-        <v>-6.17829515914004</v>
+        <v>-6.18549563169459</v>
       </c>
     </row>
     <row r="200">
@@ -7487,10 +7487,10 @@
         <v>9</v>
       </c>
       <c r="F200" t="n">
-        <v>14.2776840921866</v>
+        <v>14.2643204792213</v>
       </c>
       <c r="G200" t="n">
-        <v>-7.19505340078696</v>
+        <v>-7.20841701375232</v>
       </c>
     </row>
     <row r="201">
@@ -7510,10 +7510,10 @@
         <v>9</v>
       </c>
       <c r="F201" t="n">
-        <v>17.221961520413</v>
+        <v>17.1615618424129</v>
       </c>
       <c r="G201" t="n">
-        <v>-6.35311055765314</v>
+        <v>-6.41351023565318</v>
       </c>
     </row>
     <row r="202">
@@ -7533,10 +7533,10 @@
         <v>9</v>
       </c>
       <c r="F202" t="n">
-        <v>14.8088205543192</v>
+        <v>14.7640177490924</v>
       </c>
       <c r="G202" t="n">
-        <v>-8.02278618953614</v>
+        <v>-8.067588994763</v>
       </c>
     </row>
     <row r="203">
@@ -7556,10 +7556,10 @@
         <v>9</v>
       </c>
       <c r="F203" t="n">
-        <v>16.5291982843946</v>
+        <v>16.4370078740157</v>
       </c>
       <c r="G203" t="n">
-        <v>-7.53917778398148</v>
+        <v>-7.63136819436032</v>
       </c>
     </row>
     <row r="204">
@@ -7579,10 +7579,10 @@
         <v>9</v>
       </c>
       <c r="F204" t="n">
-        <v>16.4868824077773</v>
+        <v>16.4846870838882</v>
       </c>
       <c r="G204" t="n">
-        <v>-8.23207184058868</v>
+        <v>-8.23426716447786</v>
       </c>
     </row>
     <row r="205">
@@ -7602,10 +7602,10 @@
         <v>9</v>
       </c>
       <c r="F205" t="n">
-        <v>6.98878343399482</v>
+        <v>6.97074010327022</v>
       </c>
       <c r="G205" t="n">
-        <v>-3.44168014216412</v>
+        <v>-3.45972347288872</v>
       </c>
     </row>
     <row r="206">
@@ -7625,10 +7625,10 @@
         <v>9</v>
       </c>
       <c r="F206" t="n">
-        <v>15.1138716356108</v>
+        <v>15.0618982118294</v>
       </c>
       <c r="G206" t="n">
-        <v>-8.10041407867495</v>
+        <v>-8.15238750245628</v>
       </c>
     </row>
     <row r="207">
@@ -7648,10 +7648,10 @@
         <v>9</v>
       </c>
       <c r="F207" t="n">
-        <v>9.91820040899796</v>
+        <v>9.8677517802645</v>
       </c>
       <c r="G207" t="n">
-        <v>-7.00153928731441</v>
+        <v>-7.05198791604787</v>
       </c>
     </row>
     <row r="208">
@@ -7671,10 +7671,10 @@
         <v>9</v>
       </c>
       <c r="F208" t="n">
-        <v>12.4827586206897</v>
+        <v>12.3718386876282</v>
       </c>
       <c r="G208" t="n">
-        <v>-12.4326103705087</v>
+        <v>-12.5435303035702</v>
       </c>
     </row>
     <row r="209">
@@ -7694,10 +7694,10 @@
         <v>9</v>
       </c>
       <c r="F209" t="n">
-        <v>18.349299926308</v>
+        <v>18.2685253118122</v>
       </c>
       <c r="G209" t="n">
-        <v>-8.39164714890088</v>
+        <v>-8.47242176339674</v>
       </c>
     </row>
     <row r="210">
@@ -7717,10 +7717,10 @@
         <v>9</v>
       </c>
       <c r="F210" t="n">
-        <v>16.7717996289425</v>
+        <v>16.9098391320614</v>
       </c>
       <c r="G210" t="n">
-        <v>-4.23012715333112</v>
+        <v>-4.09208765021225</v>
       </c>
     </row>
     <row r="211">
@@ -7740,10 +7740,10 @@
         <v>9</v>
       </c>
       <c r="F211" t="n">
-        <v>12.9081245254366</v>
+        <v>13.0019120458891</v>
       </c>
       <c r="G211" t="n">
-        <v>-6.79336801187684</v>
+        <v>-6.69958049142433</v>
       </c>
     </row>
     <row r="212">
@@ -7763,10 +7763,10 @@
         <v>9</v>
       </c>
       <c r="F212" t="n">
-        <v>17.0603674540682</v>
+        <v>17.0112535985344</v>
       </c>
       <c r="G212" t="n">
-        <v>-8.42225802855724</v>
+        <v>-8.47137188409107</v>
       </c>
     </row>
     <row r="213">
@@ -7786,10 +7786,10 @@
         <v>9</v>
       </c>
       <c r="F213" t="n">
-        <v>14</v>
+        <v>13.984461709212</v>
       </c>
       <c r="G213" t="n">
-        <v>-5.19247787610619</v>
+        <v>-5.20801616689421</v>
       </c>
     </row>
     <row r="214">
@@ -7809,10 +7809,10 @@
         <v>9</v>
       </c>
       <c r="F214" t="n">
-        <v>15.0758533501896</v>
+        <v>15.0354609929078</v>
       </c>
       <c r="G214" t="n">
-        <v>-8.34536062896426</v>
+        <v>-8.38575298624609</v>
       </c>
     </row>
     <row r="215">
@@ -7832,10 +7832,10 @@
         <v>9</v>
       </c>
       <c r="F215" t="n">
-        <v>19.0604026845638</v>
+        <v>19.2803801765105</v>
       </c>
       <c r="G215" t="n">
-        <v>-11.8350176845408</v>
+        <v>-11.6150401925941</v>
       </c>
     </row>
     <row r="216">
@@ -7855,10 +7855,10 @@
         <v>9</v>
       </c>
       <c r="F216" t="n">
-        <v>14.7572815533981</v>
+        <v>14.7115756871854</v>
       </c>
       <c r="G216" t="n">
-        <v>-9.42003164830539</v>
+        <v>-9.465737514518</v>
       </c>
     </row>
     <row r="217">
@@ -7878,10 +7878,10 @@
         <v>9</v>
       </c>
       <c r="F217" t="n">
-        <v>15.913688469319</v>
+        <v>15.9244264507422</v>
       </c>
       <c r="G217" t="n">
-        <v>-10.6315294877403</v>
+        <v>-10.620791506317</v>
       </c>
     </row>
     <row r="218">
@@ -7901,10 +7901,10 @@
         <v>9</v>
       </c>
       <c r="F218" t="n">
-        <v>11.8815896188159</v>
+        <v>11.9105691056911</v>
       </c>
       <c r="G218" t="n">
-        <v>-7.63620601838273</v>
+        <v>-7.60722653150757</v>
       </c>
     </row>
     <row r="219">
@@ -7924,10 +7924,10 @@
         <v>9</v>
       </c>
       <c r="F219" t="n">
-        <v>15.1463321930825</v>
+        <v>15.1578546976036</v>
       </c>
       <c r="G219" t="n">
-        <v>-7.24313158866729</v>
+        <v>-7.23160908414611</v>
       </c>
     </row>
     <row r="220">
@@ -7947,10 +7947,10 @@
         <v>9</v>
       </c>
       <c r="F220" t="n">
-        <v>15.9062885326757</v>
+        <v>16.0049627791563</v>
       </c>
       <c r="G220" t="n">
-        <v>-8.75565609063401</v>
+        <v>-8.65698184415339</v>
       </c>
     </row>
     <row r="221">
@@ -7970,10 +7970,10 @@
         <v>9</v>
       </c>
       <c r="F221" t="n">
-        <v>13.8435565559932</v>
+        <v>13.8202247191011</v>
       </c>
       <c r="G221" t="n">
-        <v>-9.39673470614268</v>
+        <v>-9.4200665430348</v>
       </c>
     </row>
     <row r="222">
@@ -7993,10 +7993,10 @@
         <v>9</v>
       </c>
       <c r="F222" t="n">
-        <v>13.2422243166824</v>
+        <v>13.2110954395863</v>
       </c>
       <c r="G222" t="n">
-        <v>-8.80466477258724</v>
+        <v>-8.83579364968334</v>
       </c>
     </row>
     <row r="223">
@@ -8016,10 +8016,10 @@
         <v>9</v>
       </c>
       <c r="F223" t="n">
-        <v>13.1540053207213</v>
+        <v>13.0882352941176</v>
       </c>
       <c r="G223" t="n">
-        <v>-3.87223374633414</v>
+        <v>-3.93800377293775</v>
       </c>
     </row>
     <row r="224">
@@ -8039,10 +8039,10 @@
         <v>9</v>
       </c>
       <c r="F224" t="n">
-        <v>8.81588277003073</v>
+        <v>8.80963627775153</v>
       </c>
       <c r="G224" t="n">
-        <v>-4.65039000200276</v>
+        <v>-4.65663649428195</v>
       </c>
     </row>
     <row r="225">
@@ -8062,10 +8062,10 @@
         <v>9</v>
       </c>
       <c r="F225" t="n">
-        <v>9.77630488815244</v>
+        <v>9.7682119205298</v>
       </c>
       <c r="G225" t="n">
-        <v>-9.10858719817849</v>
+        <v>-9.11668016580113</v>
       </c>
     </row>
     <row r="226">
@@ -8085,10 +8085,10 @@
         <v>9</v>
       </c>
       <c r="F226" t="n">
-        <v>11.9571192963167</v>
+        <v>11.9933829611249</v>
       </c>
       <c r="G226" t="n">
-        <v>-5.21026267793227</v>
+        <v>-5.17399901312403</v>
       </c>
     </row>
     <row r="227">
@@ -8108,10 +8108,10 @@
         <v>9</v>
       </c>
       <c r="F227" t="n">
-        <v>10.2649006622517</v>
+        <v>10.2592388306674</v>
       </c>
       <c r="G227" t="n">
-        <v>-5.49172960295895</v>
+        <v>-5.49739143454321</v>
       </c>
     </row>
     <row r="228">
@@ -8131,10 +8131,10 @@
         <v>9</v>
       </c>
       <c r="F228" t="n">
-        <v>14.3344063624314</v>
+        <v>14.3127245225941</v>
       </c>
       <c r="G228" t="n">
-        <v>-5.54007062501634</v>
+        <v>-5.56175246485364</v>
       </c>
     </row>
     <row r="229">
@@ -8154,10 +8154,10 @@
         <v>9</v>
       </c>
       <c r="F229" t="n">
-        <v>12.0048341614073</v>
+        <v>11.9815050593044</v>
       </c>
       <c r="G229" t="n">
-        <v>-5.4890132545074</v>
+        <v>-5.51234235661025</v>
       </c>
     </row>
     <row r="230">
@@ -8177,10 +8177,10 @@
         <v>9</v>
       </c>
       <c r="F230" t="n">
-        <v>11.4568599717115</v>
+        <v>11.4285714285714</v>
       </c>
       <c r="G230" t="n">
-        <v>-3.40347522381927</v>
+        <v>-3.4317637669593</v>
       </c>
     </row>
     <row r="231">
@@ -8200,10 +8200,10 @@
         <v>9</v>
       </c>
       <c r="F231" t="n">
-        <v>14.7080838323353</v>
+        <v>14.4591611479029</v>
       </c>
       <c r="G231" t="n">
-        <v>-5.86739902142896</v>
+        <v>-6.11632170586142</v>
       </c>
     </row>
     <row r="232">
@@ -8223,10 +8223,10 @@
         <v>9</v>
       </c>
       <c r="F232" t="n">
-        <v>13.3014001473839</v>
+        <v>13.2867132867133</v>
       </c>
       <c r="G232" t="n">
-        <v>-7.54802070203691</v>
+        <v>-7.56270756270756</v>
       </c>
     </row>
     <row r="233">
@@ -8246,10 +8246,10 @@
         <v>9</v>
       </c>
       <c r="F233" t="n">
-        <v>11.8346467579151</v>
+        <v>11.8085253138364</v>
       </c>
       <c r="G233" t="n">
-        <v>-4.82531300063619</v>
+        <v>-4.85143444471491</v>
       </c>
     </row>
     <row r="234">
@@ -8269,10 +8269,10 @@
         <v>9</v>
       </c>
       <c r="F234" t="n">
-        <v>21.5258855585831</v>
+        <v>21.5552523874488</v>
       </c>
       <c r="G234" t="n">
-        <v>-11.3358214245296</v>
+        <v>-11.3064545956639</v>
       </c>
     </row>
     <row r="235">
@@ -8292,10 +8292,10 @@
         <v>9</v>
       </c>
       <c r="F235" t="n">
-        <v>15.0855920114123</v>
+        <v>15.166726425242</v>
       </c>
       <c r="G235" t="n">
-        <v>-3.95119221308527</v>
+        <v>-3.87005779925551</v>
       </c>
     </row>
     <row r="236">
@@ -8315,10 +8315,10 @@
         <v>9</v>
       </c>
       <c r="F236" t="n">
-        <v>18.6450839328537</v>
+        <v>18.6786786786787</v>
       </c>
       <c r="G236" t="n">
-        <v>-9.67009864241854</v>
+        <v>-9.63650389659358</v>
       </c>
     </row>
     <row r="237">
@@ -8338,10 +8338,10 @@
         <v>9</v>
       </c>
       <c r="F237" t="n">
-        <v>14.1977841608535</v>
+        <v>14.125331700347</v>
       </c>
       <c r="G237" t="n">
-        <v>-7.51054917247983</v>
+        <v>-7.58300163298632</v>
       </c>
     </row>
     <row r="238">
@@ -8361,10 +8361,10 @@
         <v>9</v>
       </c>
       <c r="F238" t="n">
-        <v>12.1220159151194</v>
+        <v>12.0389884088514</v>
       </c>
       <c r="G238" t="n">
-        <v>-3.04875453762091</v>
+        <v>-3.13178204388885</v>
       </c>
     </row>
     <row r="239">
@@ -8387,7 +8387,7 @@
         <v>16.0925874896666</v>
       </c>
       <c r="G239" t="n">
-        <v>-6.4121978535109</v>
+        <v>-6.41219785351089</v>
       </c>
     </row>
     <row r="240">
@@ -8407,10 +8407,10 @@
         <v>9</v>
       </c>
       <c r="F240" t="n">
-        <v>17.546557321032</v>
+        <v>17.5405636208369</v>
       </c>
       <c r="G240" t="n">
-        <v>-7.04952380650328</v>
+        <v>-7.05551750669834</v>
       </c>
     </row>
     <row r="241">
@@ -8430,10 +8430,10 @@
         <v>9</v>
       </c>
       <c r="F241" t="n">
-        <v>17.4720357941834</v>
+        <v>17.4136008918618</v>
       </c>
       <c r="G241" t="n">
-        <v>-5.39317239212566</v>
+        <v>-5.45160729444734</v>
       </c>
     </row>
     <row r="242">
@@ -8453,10 +8453,10 @@
         <v>9</v>
       </c>
       <c r="F242" t="n">
-        <v>20.8400646203554</v>
+        <v>20.7980652962515</v>
       </c>
       <c r="G242" t="n">
-        <v>-7.92247718566465</v>
+        <v>-7.96447650976855</v>
       </c>
     </row>
     <row r="243">
@@ -8476,10 +8476,10 @@
         <v>9</v>
       </c>
       <c r="F243" t="n">
-        <v>10.1687886202463</v>
+        <v>10.1582566906952</v>
       </c>
       <c r="G243" t="n">
-        <v>-2.93529686563322</v>
+        <v>-2.9458287951844</v>
       </c>
     </row>
     <row r="244">
@@ -8499,10 +8499,10 @@
         <v>9</v>
       </c>
       <c r="F244" t="n">
-        <v>11.0247576316</v>
+        <v>11.010642554213</v>
       </c>
       <c r="G244" t="n">
-        <v>-3.07257360858835</v>
+        <v>-3.08668868597537</v>
       </c>
     </row>
     <row r="245">
@@ -8522,10 +8522,10 @@
         <v>9</v>
       </c>
       <c r="F245" t="n">
-        <v>12.9636430407639</v>
+        <v>12.9731716280779</v>
       </c>
       <c r="G245" t="n">
-        <v>-4.38169760136613</v>
+        <v>-4.37216901405208</v>
       </c>
     </row>
     <row r="246">
@@ -8545,10 +8545,10 @@
         <v>9</v>
       </c>
       <c r="F246" t="n">
-        <v>12.864012823938</v>
+        <v>12.8519951955158</v>
       </c>
       <c r="G246" t="n">
-        <v>-4.66678799741722</v>
+        <v>-4.67880562583942</v>
       </c>
     </row>
     <row r="247">
@@ -8568,10 +8568,10 @@
         <v>9</v>
       </c>
       <c r="F247" t="n">
-        <v>10.3281027104137</v>
+        <v>10.3236845857693</v>
       </c>
       <c r="G247" t="n">
-        <v>-4.77970614739516</v>
+        <v>-4.78412427203957</v>
       </c>
     </row>
     <row r="248">
@@ -8591,10 +8591,10 @@
         <v>9</v>
       </c>
       <c r="F248" t="n">
-        <v>11.3267400634447</v>
+        <v>11.3014336250233</v>
       </c>
       <c r="G248" t="n">
-        <v>-3.01391927721467</v>
+        <v>-3.03922571563607</v>
       </c>
     </row>
     <row r="249">
@@ -8614,10 +8614,10 @@
         <v>9</v>
       </c>
       <c r="F249" t="n">
-        <v>8.38574423480084</v>
+        <v>8.33044081916001</v>
       </c>
       <c r="G249" t="n">
-        <v>-2.54488182272877</v>
+        <v>-2.6001852383696</v>
       </c>
     </row>
     <row r="250">
@@ -8637,10 +8637,10 @@
         <v>9</v>
       </c>
       <c r="F250" t="n">
-        <v>8.18407634984965</v>
+        <v>8.15316488668924</v>
       </c>
       <c r="G250" t="n">
-        <v>-1.50679705544966</v>
+        <v>-1.53770851861007</v>
       </c>
     </row>
     <row r="251">
@@ -8660,10 +8660,10 @@
         <v>9</v>
       </c>
       <c r="F251" t="n">
-        <v>10.6463455334297</v>
+        <v>10.6380613606047</v>
       </c>
       <c r="G251" t="n">
-        <v>-2.87411508758609</v>
+        <v>-2.88239926041112</v>
       </c>
     </row>
     <row r="252">
@@ -8683,10 +8683,10 @@
         <v>9</v>
       </c>
       <c r="F252" t="n">
-        <v>12.2456495718626</v>
+        <v>12.2124787658969</v>
       </c>
       <c r="G252" t="n">
-        <v>-2.91917603481738</v>
+        <v>-2.95234684078312</v>
       </c>
     </row>
     <row r="253">
@@ -8706,10 +8706,10 @@
         <v>9</v>
       </c>
       <c r="F253" t="n">
-        <v>9.65136054421769</v>
+        <v>9.61253440609782</v>
       </c>
       <c r="G253" t="n">
-        <v>-2.66579018717939</v>
+        <v>-2.70461632529926</v>
       </c>
     </row>
     <row r="254">
@@ -8729,10 +8729,10 @@
         <v>9</v>
       </c>
       <c r="F254" t="n">
-        <v>14.9408641081342</v>
+        <v>14.9048880327474</v>
       </c>
       <c r="G254" t="n">
-        <v>-3.58693899122769</v>
+        <v>-3.62291506661448</v>
       </c>
     </row>
     <row r="255">
@@ -8752,10 +8752,10 @@
         <v>9</v>
       </c>
       <c r="F255" t="n">
-        <v>12.6227614095898</v>
+        <v>12.6045572541102</v>
       </c>
       <c r="G255" t="n">
-        <v>-3.81282495667244</v>
+        <v>-3.8310291121521</v>
       </c>
     </row>
     <row r="256">
@@ -8775,10 +8775,10 @@
         <v>9</v>
       </c>
       <c r="F256" t="n">
-        <v>12.0381698067042</v>
+        <v>12.003659652333</v>
       </c>
       <c r="G256" t="n">
-        <v>-3.46039568307859</v>
+        <v>-3.49490583744975</v>
       </c>
     </row>
     <row r="257">
@@ -8798,10 +8798,10 @@
         <v>9</v>
       </c>
       <c r="F257" t="n">
-        <v>12.8969594594595</v>
+        <v>12.8222352842388</v>
       </c>
       <c r="G257" t="n">
-        <v>-4.49434488836663</v>
+        <v>-4.56906906358727</v>
       </c>
     </row>
     <row r="258">
@@ -8821,10 +8821,10 @@
         <v>9</v>
       </c>
       <c r="F258" t="n">
-        <v>14.109476377593</v>
+        <v>14.0927345746623</v>
       </c>
       <c r="G258" t="n">
-        <v>-4.73392268510045</v>
+        <v>-4.75066448803114</v>
       </c>
     </row>
     <row r="259">
@@ -8844,10 +8844,10 @@
         <v>9</v>
       </c>
       <c r="F259" t="n">
-        <v>13.197251414713</v>
+        <v>13.1388329979879</v>
       </c>
       <c r="G259" t="n">
-        <v>-5.69321224189764</v>
+        <v>-5.75163065862272</v>
       </c>
     </row>
     <row r="260">
@@ -8867,10 +8867,10 @@
         <v>9</v>
       </c>
       <c r="F260" t="n">
-        <v>11.8173107633344</v>
+        <v>11.7628357971706</v>
       </c>
       <c r="G260" t="n">
-        <v>-5.4266765305697</v>
+        <v>-5.48115149673354</v>
       </c>
     </row>
     <row r="261">
@@ -8890,10 +8890,10 @@
         <v>9</v>
       </c>
       <c r="F261" t="n">
-        <v>11.6646778042959</v>
+        <v>11.5954922894425</v>
       </c>
       <c r="G261" t="n">
-        <v>-5.19612592313563</v>
+        <v>-5.2653114379891</v>
       </c>
     </row>
     <row r="262">
@@ -8913,10 +8913,10 @@
         <v>9</v>
       </c>
       <c r="F262" t="n">
-        <v>13.0872039168982</v>
+        <v>13.0457723255507</v>
       </c>
       <c r="G262" t="n">
-        <v>-6.21663559419516</v>
+        <v>-6.25806718554267</v>
       </c>
     </row>
     <row r="263">
@@ -8936,10 +8936,10 @@
         <v>9</v>
       </c>
       <c r="F263" t="n">
-        <v>15.956340956341</v>
+        <v>15.9149818558839</v>
       </c>
       <c r="G263" t="n">
-        <v>-7.26713999113587</v>
+        <v>-7.30849909159295</v>
       </c>
     </row>
     <row r="264">
@@ -8959,10 +8959,10 @@
         <v>9</v>
       </c>
       <c r="F264" t="n">
-        <v>14.9889286322603</v>
+        <v>14.8598446470787</v>
       </c>
       <c r="G264" t="n">
-        <v>-8.0159291054219</v>
+        <v>-8.14501309060347</v>
       </c>
     </row>
     <row r="265">
@@ -8982,10 +8982,10 @@
         <v>9</v>
       </c>
       <c r="F265" t="n">
-        <v>13.2613463809684</v>
+        <v>13.2367800606265</v>
       </c>
       <c r="G265" t="n">
-        <v>-5.74979568031289</v>
+        <v>-5.77436200065486</v>
       </c>
     </row>
     <row r="266">
@@ -9005,10 +9005,10 @@
         <v>9</v>
       </c>
       <c r="F266" t="n">
-        <v>11.3013698630137</v>
+        <v>11.3735428281804</v>
       </c>
       <c r="G266" t="n">
-        <v>-6.33870141000155</v>
+        <v>-6.26652844483481</v>
       </c>
     </row>
     <row r="267">
@@ -9028,10 +9028,10 @@
         <v>9</v>
       </c>
       <c r="F267" t="n">
-        <v>12.4894276853679</v>
+        <v>12.4859075535513</v>
       </c>
       <c r="G267" t="n">
-        <v>-7.95915955611184</v>
+        <v>-7.96267968792846</v>
       </c>
     </row>
     <row r="268">
@@ -9051,10 +9051,10 @@
         <v>9</v>
       </c>
       <c r="F268" t="n">
-        <v>13.9005392450569</v>
+        <v>14.0350877192982</v>
       </c>
       <c r="G268" t="n">
-        <v>-7.75737085418418</v>
+        <v>-7.62282237994286</v>
       </c>
     </row>
     <row r="269">
@@ -9074,10 +9074,10 @@
         <v>9</v>
       </c>
       <c r="F269" t="n">
-        <v>13.3700895933839</v>
+        <v>13.4722222222222</v>
       </c>
       <c r="G269" t="n">
-        <v>-6.77972314069853</v>
+        <v>-6.67759051186017</v>
       </c>
     </row>
     <row r="270">
@@ -9097,10 +9097,10 @@
         <v>9</v>
       </c>
       <c r="F270" t="n">
-        <v>13.5785007072136</v>
+        <v>13.6363636363636</v>
       </c>
       <c r="G270" t="n">
-        <v>-4.83876547983678</v>
+        <v>-4.78090255068672</v>
       </c>
     </row>
     <row r="271">
@@ -9120,10 +9120,10 @@
         <v>9</v>
       </c>
       <c r="F271" t="n">
-        <v>14.4171779141104</v>
+        <v>14.4282425172678</v>
       </c>
       <c r="G271" t="n">
-        <v>-7.02768900604166</v>
+        <v>-7.01662440288425</v>
       </c>
     </row>
     <row r="272">
@@ -9143,10 +9143,10 @@
         <v>9</v>
       </c>
       <c r="F272" t="n">
-        <v>15.4880908305566</v>
+        <v>15.4804489946959</v>
       </c>
       <c r="G272" t="n">
-        <v>-6.37647760053545</v>
+        <v>-6.38411943639609</v>
       </c>
     </row>
     <row r="273">
@@ -9166,10 +9166,10 @@
         <v>9</v>
       </c>
       <c r="F273" t="n">
-        <v>14.7260273972603</v>
+        <v>14.7631036850538</v>
       </c>
       <c r="G273" t="n">
-        <v>-5.58209585203944</v>
+        <v>-5.54501956424593</v>
       </c>
     </row>
     <row r="274">
@@ -9189,10 +9189,10 @@
         <v>9</v>
       </c>
       <c r="F274" t="n">
-        <v>14.9193548387097</v>
+        <v>14.9412628487518</v>
       </c>
       <c r="G274" t="n">
-        <v>-5.9806079727444</v>
+        <v>-5.95869996270224</v>
       </c>
     </row>
     <row r="275">
@@ -9212,10 +9212,10 @@
         <v>9</v>
       </c>
       <c r="F275" t="n">
-        <v>11.3956466069142</v>
+        <v>11.3746094859415</v>
       </c>
       <c r="G275" t="n">
-        <v>-3.09591370597175</v>
+        <v>-3.11695082694447</v>
       </c>
     </row>
     <row r="276">
@@ -9235,10 +9235,10 @@
         <v>9</v>
       </c>
       <c r="F276" t="n">
-        <v>15.0642054574639</v>
+        <v>15.0099960015994</v>
       </c>
       <c r="G276" t="n">
-        <v>-5.24589710249735</v>
+        <v>-5.30010655836188</v>
       </c>
     </row>
     <row r="277">
@@ -9258,10 +9258,10 @@
         <v>9</v>
       </c>
       <c r="F277" t="n">
-        <v>16.8350168350168</v>
+        <v>16.728624535316</v>
       </c>
       <c r="G277" t="n">
-        <v>-6.21171880536846</v>
+        <v>-6.31811110506931</v>
       </c>
     </row>
     <row r="278">
@@ -9281,10 +9281,10 @@
         <v>9</v>
       </c>
       <c r="F278" t="n">
-        <v>18.9480491485234</v>
+        <v>18.9154293092318</v>
       </c>
       <c r="G278" t="n">
-        <v>-7.10292013921349</v>
+        <v>-7.13553997850511</v>
       </c>
     </row>
     <row r="279">
@@ -9327,10 +9327,10 @@
         <v>9</v>
       </c>
       <c r="F280" t="n">
-        <v>14.1100102494021</v>
+        <v>14.0332993544003</v>
       </c>
       <c r="G280" t="n">
-        <v>-4.1193265686312</v>
+        <v>-4.19603746363305</v>
       </c>
     </row>
     <row r="281">
@@ -9350,10 +9350,10 @@
         <v>9</v>
       </c>
       <c r="F281" t="n">
-        <v>16.0333909038572</v>
+        <v>16.0611303344867</v>
       </c>
       <c r="G281" t="n">
-        <v>-3.86557064539902</v>
+        <v>-3.83783121476951</v>
       </c>
     </row>
     <row r="282">
@@ -9373,10 +9373,10 @@
         <v>9</v>
       </c>
       <c r="F282" t="n">
-        <v>11.5138592750533</v>
+        <v>11.4601018675722</v>
       </c>
       <c r="G282" t="n">
-        <v>-4.55023275452763</v>
+        <v>-4.60399016200878</v>
       </c>
     </row>
     <row r="283">
@@ -9396,10 +9396,10 @@
         <v>9</v>
       </c>
       <c r="F283" t="n">
-        <v>21.2378389567377</v>
+        <v>21.1067681547007</v>
       </c>
       <c r="G283" t="n">
-        <v>-6.08667782861323</v>
+        <v>-6.21774863065029</v>
       </c>
     </row>
     <row r="284">
@@ -9419,10 +9419,10 @@
         <v>9</v>
       </c>
       <c r="F284" t="n">
-        <v>13.3333333333333</v>
+        <v>13.2669983416252</v>
       </c>
       <c r="G284" t="n">
-        <v>-4.68821416911525</v>
+        <v>-4.75454916082337</v>
       </c>
     </row>
     <row r="285">
@@ -9442,10 +9442,10 @@
         <v>9</v>
       </c>
       <c r="F285" t="n">
-        <v>11.6390876565295</v>
+        <v>11.6208975217683</v>
       </c>
       <c r="G285" t="n">
-        <v>-2.5854290394283</v>
+        <v>-2.60361917418957</v>
       </c>
     </row>
     <row r="286">
@@ -9465,10 +9465,10 @@
         <v>9</v>
       </c>
       <c r="F286" t="n">
-        <v>12.8693827592236</v>
+        <v>12.8066817469984</v>
       </c>
       <c r="G286" t="n">
-        <v>-3.7513544092228</v>
+        <v>-3.814055421448</v>
       </c>
     </row>
     <row r="287">
@@ -9488,10 +9488,10 @@
         <v>9</v>
       </c>
       <c r="F287" t="n">
-        <v>13.1276901004304</v>
+        <v>13.1214149139579</v>
       </c>
       <c r="G287" t="n">
-        <v>-5.78805737668763</v>
+        <v>-5.79433256316011</v>
       </c>
     </row>
     <row r="288">
@@ -9511,10 +9511,10 @@
         <v>9</v>
       </c>
       <c r="F288" t="n">
-        <v>17.9638009049774</v>
+        <v>17.9151624548736</v>
       </c>
       <c r="G288" t="n">
-        <v>-5.57879999188361</v>
+        <v>-5.62743844198734</v>
       </c>
     </row>
     <row r="289">
@@ -9534,10 +9534,10 @@
         <v>9</v>
       </c>
       <c r="F289" t="n">
-        <v>13.0925507900677</v>
+        <v>13.0704225352113</v>
       </c>
       <c r="G289" t="n">
-        <v>-4.16525757414615</v>
+        <v>-4.1873858290026</v>
       </c>
     </row>
     <row r="290">
@@ -9557,10 +9557,10 @@
         <v>9</v>
       </c>
       <c r="F290" t="n">
-        <v>18.0741910023678</v>
+        <v>18.1170886075949</v>
       </c>
       <c r="G290" t="n">
-        <v>-0.512936156187934</v>
+        <v>-0.470038550960794</v>
       </c>
     </row>
     <row r="291">
@@ -9580,10 +9580,10 @@
         <v>9</v>
       </c>
       <c r="F291" t="n">
-        <v>12.0576339737108</v>
+        <v>12.0515411824154</v>
       </c>
       <c r="G291" t="n">
-        <v>-4.18540645233614</v>
+        <v>-4.1914992436316</v>
       </c>
     </row>
     <row r="292">
@@ -9603,10 +9603,10 @@
         <v>9</v>
       </c>
       <c r="F292" t="n">
-        <v>12.4042879019908</v>
+        <v>12.3626373626374</v>
       </c>
       <c r="G292" t="n">
-        <v>-2.93401485030277</v>
+        <v>-2.97566538965621</v>
       </c>
     </row>
     <row r="293">
@@ -9626,10 +9626,10 @@
         <v>9</v>
       </c>
       <c r="F293" t="n">
-        <v>14.461738002594</v>
+        <v>14.3917392707325</v>
       </c>
       <c r="G293" t="n">
-        <v>-3.34563270040999</v>
+        <v>-3.41563143227153</v>
       </c>
     </row>
     <row r="294">
@@ -9649,10 +9649,10 @@
         <v>9</v>
       </c>
       <c r="F294" t="n">
-        <v>14.9622512010981</v>
+        <v>14.8957977451315</v>
       </c>
       <c r="G294" t="n">
-        <v>-7.55275880557296</v>
+        <v>-7.61921226153958</v>
       </c>
     </row>
     <row r="295">
@@ -9672,10 +9672,10 @@
         <v>9</v>
       </c>
       <c r="F295" t="n">
-        <v>16.4196454519035</v>
+        <v>16.3294797687861</v>
       </c>
       <c r="G295" t="n">
-        <v>-8.36714959623954</v>
+        <v>-8.45731527935693</v>
       </c>
     </row>
     <row r="296">
@@ -9695,10 +9695,10 @@
         <v>9</v>
       </c>
       <c r="F296" t="n">
-        <v>12.3362626430111</v>
+        <v>12.2914257393028</v>
       </c>
       <c r="G296" t="n">
-        <v>-4.91567034667961</v>
+        <v>-4.9605072503879</v>
       </c>
     </row>
     <row r="297">
@@ -9718,10 +9718,10 @@
         <v>9</v>
       </c>
       <c r="F297" t="n">
-        <v>12.4961047055157</v>
+        <v>12.4534161490683</v>
       </c>
       <c r="G297" t="n">
-        <v>-3.34714018621955</v>
+        <v>-3.38982874266696</v>
       </c>
     </row>
     <row r="298">
@@ -9741,10 +9741,10 @@
         <v>9</v>
       </c>
       <c r="F298" t="n">
-        <v>12.0057232049948</v>
+        <v>11.9235240924945</v>
       </c>
       <c r="G298" t="n">
-        <v>-2.42997233306295</v>
+        <v>-2.51217144556323</v>
       </c>
     </row>
     <row r="299">
@@ -9764,10 +9764,10 @@
         <v>9</v>
       </c>
       <c r="F299" t="n">
-        <v>13.3218736570692</v>
+        <v>13.2365499573015</v>
       </c>
       <c r="G299" t="n">
-        <v>-2.74991501000079</v>
+        <v>-2.83523870976852</v>
       </c>
     </row>
     <row r="300">
@@ -9787,10 +9787,10 @@
         <v>9</v>
       </c>
       <c r="F300" t="n">
-        <v>13.2056451612903</v>
+        <v>13.1043681227076</v>
       </c>
       <c r="G300" t="n">
-        <v>-4.75393762880094</v>
+        <v>-4.8552146673837</v>
       </c>
     </row>
     <row r="301">
@@ -9810,10 +9810,10 @@
         <v>9</v>
       </c>
       <c r="F301" t="n">
-        <v>10.3243447105412</v>
+        <v>10.3165630299604</v>
       </c>
       <c r="G301" t="n">
-        <v>-1.8631552894588</v>
+        <v>-1.87093697003957</v>
       </c>
     </row>
     <row r="302">
@@ -9833,10 +9833,10 @@
         <v>9</v>
       </c>
       <c r="F302" t="n">
-        <v>10.7440476190476</v>
+        <v>10.7328675486844</v>
       </c>
       <c r="G302" t="n">
-        <v>-3.74160668466127</v>
+        <v>-3.75278675502448</v>
       </c>
     </row>
     <row r="303">
@@ -9856,10 +9856,10 @@
         <v>9</v>
       </c>
       <c r="F303" t="n">
-        <v>13.0674914393019</v>
+        <v>13.0358126721763</v>
       </c>
       <c r="G303" t="n">
-        <v>-2.7585429913837</v>
+        <v>-2.79022175850928</v>
       </c>
     </row>
     <row r="304">
@@ -9879,10 +9879,10 @@
         <v>9</v>
       </c>
       <c r="F304" t="n">
-        <v>10.25</v>
+        <v>10.2265641238828</v>
       </c>
       <c r="G304" t="n">
-        <v>-1.7994889725659</v>
+        <v>-1.82292484868313</v>
       </c>
     </row>
     <row r="305">
@@ -9902,10 +9902,10 @@
         <v>9</v>
       </c>
       <c r="F305" t="n">
-        <v>12.8929273084479</v>
+        <v>12.8613424791769</v>
       </c>
       <c r="G305" t="n">
-        <v>-2.50942454767381</v>
+        <v>-2.54100937694487</v>
       </c>
     </row>
     <row r="306">
@@ -9925,10 +9925,10 @@
         <v>9</v>
       </c>
       <c r="F306" t="n">
-        <v>18.358602504944</v>
+        <v>18.3193553691827</v>
       </c>
       <c r="G306" t="n">
-        <v>-1.46253809027667</v>
+        <v>-1.50178522603795</v>
       </c>
     </row>
     <row r="307">
@@ -9948,10 +9948,10 @@
         <v>9</v>
       </c>
       <c r="F307" t="n">
-        <v>15.4082840236686</v>
+        <v>15.3900709219858</v>
       </c>
       <c r="G307" t="n">
-        <v>-0.990924593609886</v>
+        <v>-1.00913769529271</v>
       </c>
     </row>
     <row r="308">
@@ -9971,10 +9971,10 @@
         <v>9</v>
       </c>
       <c r="F308" t="n">
-        <v>13.2772374603868</v>
+        <v>13.2137030995106</v>
       </c>
       <c r="G308" t="n">
-        <v>-5.02334994086898</v>
+        <v>-5.08688430174522</v>
       </c>
     </row>
     <row r="309">
@@ -9994,10 +9994,10 @@
         <v>9</v>
       </c>
       <c r="F309" t="n">
-        <v>13.3796698523023</v>
+        <v>13.3414190418435</v>
       </c>
       <c r="G309" t="n">
-        <v>-4.91925665471665</v>
+        <v>-4.95750746517545</v>
       </c>
     </row>
     <row r="310">
@@ -10017,10 +10017,10 @@
         <v>9</v>
       </c>
       <c r="F310" t="n">
-        <v>11.323710417366</v>
+        <v>11.3047363717605</v>
       </c>
       <c r="G310" t="n">
-        <v>-3.82217527818639</v>
+        <v>-3.8411493237919</v>
       </c>
     </row>
     <row r="311">
@@ -10040,10 +10040,10 @@
         <v>9</v>
       </c>
       <c r="F311" t="n">
-        <v>12.228708277204</v>
+        <v>12.1976709465512</v>
       </c>
       <c r="G311" t="n">
-        <v>-2.78698185440575</v>
+        <v>-2.81801918505855</v>
       </c>
     </row>
     <row r="312">
@@ -10063,10 +10063,10 @@
         <v>9</v>
       </c>
       <c r="F312" t="n">
-        <v>11.3446159568533</v>
+        <v>11.3235567105996</v>
       </c>
       <c r="G312" t="n">
-        <v>-2.84703193779238</v>
+        <v>-2.86809118404605</v>
       </c>
     </row>
     <row r="313">
@@ -10086,10 +10086,10 @@
         <v>9</v>
       </c>
       <c r="F313" t="n">
-        <v>12.9845331296544</v>
+        <v>12.9486813291441</v>
       </c>
       <c r="G313" t="n">
-        <v>-4.23502756816718</v>
+        <v>-4.27087936867751</v>
       </c>
     </row>
     <row r="314">
@@ -10109,10 +10109,10 @@
         <v>9</v>
       </c>
       <c r="F314" t="n">
-        <v>14.5063801208865</v>
+        <v>14.4869215291751</v>
       </c>
       <c r="G314" t="n">
-        <v>-5.85598690039009</v>
+        <v>-5.87544549210154</v>
       </c>
     </row>
     <row r="315">
@@ -10132,10 +10132,10 @@
         <v>9</v>
       </c>
       <c r="F315" t="n">
-        <v>10.9667558272831</v>
+        <v>10.9361107582878</v>
       </c>
       <c r="G315" t="n">
-        <v>-6.26523228858712</v>
+        <v>-6.29587735758244</v>
       </c>
     </row>
     <row r="316">
@@ -10155,10 +10155,10 @@
         <v>9</v>
       </c>
       <c r="F316" t="n">
-        <v>16.3940809968847</v>
+        <v>16.3431677018634</v>
       </c>
       <c r="G316" t="n">
-        <v>-6.90952505197141</v>
+        <v>-6.96043834699279</v>
       </c>
     </row>
     <row r="317">
@@ -10178,10 +10178,10 @@
         <v>9</v>
       </c>
       <c r="F317" t="n">
-        <v>16.030534351145</v>
+        <v>15.9758656873033</v>
       </c>
       <c r="G317" t="n">
-        <v>-10.1409511922249</v>
+        <v>-10.1956198560666</v>
       </c>
     </row>
     <row r="318">
@@ -10201,10 +10201,10 @@
         <v>9</v>
       </c>
       <c r="F318" t="n">
-        <v>14.9806284976324</v>
+        <v>14.9206802915535</v>
       </c>
       <c r="G318" t="n">
-        <v>-4.58641060851288</v>
+        <v>-4.64635881459173</v>
       </c>
     </row>
     <row r="319">
@@ -10224,10 +10224,10 @@
         <v>9</v>
       </c>
       <c r="F319" t="n">
-        <v>16.3229639986019</v>
+        <v>16.3400979706088</v>
       </c>
       <c r="G319" t="n">
-        <v>-7.07248113597368</v>
+        <v>-7.05534716396675</v>
       </c>
     </row>
     <row r="320">
@@ -10247,10 +10247,10 @@
         <v>9</v>
       </c>
       <c r="F320" t="n">
-        <v>15.7158941640083</v>
+        <v>15.6893967778194</v>
       </c>
       <c r="G320" t="n">
-        <v>-5.36956478218426</v>
+        <v>-5.39606216837311</v>
       </c>
     </row>
     <row r="321">
@@ -10270,10 +10270,10 @@
         <v>9</v>
       </c>
       <c r="F321" t="n">
-        <v>16.4954128440367</v>
+        <v>16.474253252703</v>
       </c>
       <c r="G321" t="n">
-        <v>-3.29854087999641</v>
+        <v>-3.31970047133015</v>
       </c>
     </row>
     <row r="322">
@@ -10293,10 +10293,10 @@
         <v>9</v>
       </c>
       <c r="F322" t="n">
-        <v>14.4751924021615</v>
+        <v>14.477563052735</v>
       </c>
       <c r="G322" t="n">
-        <v>-5.83581997486171</v>
+        <v>-5.83344932428815</v>
       </c>
     </row>
     <row r="323">
@@ -10316,10 +10316,10 @@
         <v>9</v>
       </c>
       <c r="F323" t="n">
-        <v>12.7001966844619</v>
+        <v>12.6256983240223</v>
       </c>
       <c r="G323" t="n">
-        <v>-2.42807625920377</v>
+        <v>-2.50257461964335</v>
       </c>
     </row>
     <row r="324">
@@ -10339,10 +10339,10 @@
         <v>9</v>
       </c>
       <c r="F324" t="n">
-        <v>14.7797643621582</v>
+        <v>14.7264500205677</v>
       </c>
       <c r="G324" t="n">
-        <v>-3.87417273881128</v>
+        <v>-3.92748708040183</v>
       </c>
     </row>
     <row r="325">
@@ -10362,10 +10362,10 @@
         <v>9</v>
       </c>
       <c r="F325" t="n">
-        <v>14.8257815727861</v>
+        <v>14.7749107878122</v>
       </c>
       <c r="G325" t="n">
-        <v>-4.8827498257628</v>
+        <v>-4.93362061073667</v>
       </c>
     </row>
     <row r="326">
@@ -10385,10 +10385,10 @@
         <v>9</v>
       </c>
       <c r="F326" t="n">
-        <v>18.4039087947883</v>
+        <v>18.2650862068966</v>
       </c>
       <c r="G326" t="n">
-        <v>-7.19165907224774</v>
+        <v>-7.33048166013946</v>
       </c>
     </row>
     <row r="327">
@@ -10408,10 +10408,10 @@
         <v>9</v>
       </c>
       <c r="F327" t="n">
-        <v>12.3047292959555</v>
+        <v>12.3073630136986</v>
       </c>
       <c r="G327" t="n">
-        <v>-5.22676760773872</v>
+        <v>-5.22413388999558</v>
       </c>
     </row>
     <row r="328">
@@ -10431,10 +10431,10 @@
         <v>9</v>
       </c>
       <c r="F328" t="n">
-        <v>10.2250803858521</v>
+        <v>10.2103066302777</v>
       </c>
       <c r="G328" t="n">
-        <v>-4.84117186345267</v>
+        <v>-4.85594561902703</v>
       </c>
     </row>
     <row r="329">
@@ -10454,10 +10454,10 @@
         <v>9</v>
       </c>
       <c r="F329" t="n">
-        <v>11.640657950232</v>
+        <v>11.6283968822414</v>
       </c>
       <c r="G329" t="n">
-        <v>-4.941727216224</v>
+        <v>-4.95398828421455</v>
       </c>
     </row>
     <row r="330">
@@ -10477,10 +10477,10 @@
         <v>9</v>
       </c>
       <c r="F330" t="n">
-        <v>11.7452688495044</v>
+        <v>11.6577221228384</v>
       </c>
       <c r="G330" t="n">
-        <v>-6.09028133187412</v>
+        <v>-6.17782805854007</v>
       </c>
     </row>
     <row r="331">
@@ -10500,10 +10500,10 @@
         <v>9</v>
       </c>
       <c r="F331" t="n">
-        <v>17.5925925925926</v>
+        <v>17.5249807840123</v>
       </c>
       <c r="G331" t="n">
-        <v>-4.62126282909415</v>
+        <v>-4.68887463767445</v>
       </c>
     </row>
     <row r="332">
@@ -10523,10 +10523,10 @@
         <v>9</v>
       </c>
       <c r="F332" t="n">
-        <v>17.0048985304409</v>
+        <v>16.9692737430168</v>
       </c>
       <c r="G332" t="n">
-        <v>-5.71889641982692</v>
+        <v>-5.75452120725103</v>
       </c>
     </row>
     <row r="333">
@@ -10546,10 +10546,10 @@
         <v>9</v>
       </c>
       <c r="F333" t="n">
-        <v>13.805278488834</v>
+        <v>13.7494505494505</v>
       </c>
       <c r="G333" t="n">
-        <v>-4.33631443152002</v>
+        <v>-4.39214237090343</v>
       </c>
     </row>
     <row r="334">
@@ -10569,10 +10569,10 @@
         <v>9</v>
       </c>
       <c r="F334" t="n">
-        <v>10.6096975516083</v>
+        <v>10.6352261790183</v>
       </c>
       <c r="G334" t="n">
-        <v>-2.18877427265153</v>
+        <v>-2.1632456452415</v>
       </c>
     </row>
     <row r="335">
@@ -10592,10 +10592,10 @@
         <v>9</v>
       </c>
       <c r="F335" t="n">
-        <v>16.1707882534776</v>
+        <v>16.0868729579089</v>
       </c>
       <c r="G335" t="n">
-        <v>-4.82558855811661</v>
+        <v>-4.9095038536853</v>
       </c>
     </row>
     <row r="336">
@@ -10615,10 +10615,10 @@
         <v>9</v>
       </c>
       <c r="F336" t="n">
-        <v>13.2085351485797</v>
+        <v>13.1688854085095</v>
       </c>
       <c r="G336" t="n">
-        <v>-6.31281025892358</v>
+        <v>-6.35245999899371</v>
       </c>
     </row>
     <row r="337">
@@ -10638,10 +10638,10 @@
         <v>9</v>
       </c>
       <c r="F337" t="n">
-        <v>11.9716885743175</v>
+        <v>11.9162640901771</v>
       </c>
       <c r="G337" t="n">
-        <v>-8.56807244752017</v>
+        <v>-8.62349693166053</v>
       </c>
     </row>
     <row r="338">
@@ -10661,10 +10661,10 @@
         <v>9</v>
       </c>
       <c r="F338" t="n">
-        <v>9.9175103112111</v>
+        <v>9.89524878413767</v>
       </c>
       <c r="G338" t="n">
-        <v>-6.30076864318692</v>
+        <v>-6.32303017026034</v>
       </c>
     </row>
     <row r="339">
@@ -10684,10 +10684,10 @@
         <v>9</v>
       </c>
       <c r="F339" t="n">
-        <v>12.3975570287623</v>
+        <v>12.37430313135</v>
       </c>
       <c r="G339" t="n">
-        <v>-3.81355518672321</v>
+        <v>-3.83680908413556</v>
       </c>
     </row>
     <row r="340">
@@ -10707,10 +10707,10 @@
         <v>9</v>
       </c>
       <c r="F340" t="n">
-        <v>15.4442241845378</v>
+        <v>15.4164418060802</v>
       </c>
       <c r="G340" t="n">
-        <v>-4.66888999008225</v>
+        <v>-4.69667236853977</v>
       </c>
     </row>
     <row r="341">
@@ -10730,10 +10730,10 @@
         <v>9</v>
       </c>
       <c r="F341" t="n">
-        <v>13.0119265476115</v>
+        <v>12.9881582262535</v>
       </c>
       <c r="G341" t="n">
-        <v>-3.35025589687392</v>
+        <v>-3.37402421823199</v>
       </c>
     </row>
     <row r="342">
@@ -10753,10 +10753,10 @@
         <v>9</v>
       </c>
       <c r="F342" t="n">
-        <v>14.1658152094585</v>
+        <v>14.1420765027322</v>
       </c>
       <c r="G342" t="n">
-        <v>-2.70223698967154</v>
+        <v>-2.72597569639777</v>
       </c>
     </row>
     <row r="343">
@@ -10776,10 +10776,10 @@
         <v>9</v>
       </c>
       <c r="F343" t="n">
-        <v>16.5217391304348</v>
+        <v>16.4785974074419</v>
       </c>
       <c r="G343" t="n">
-        <v>-1.40270799115545</v>
+        <v>-1.44584971414828</v>
       </c>
     </row>
     <row r="344">
@@ -10799,10 +10799,10 @@
         <v>9</v>
       </c>
       <c r="F344" t="n">
-        <v>14.1834299352199</v>
+        <v>14.2125042705842</v>
       </c>
       <c r="G344" t="n">
-        <v>-1.12476363384322</v>
+        <v>-1.09568929847892</v>
       </c>
     </row>
     <row r="345">
@@ -10822,10 +10822,10 @@
         <v>9</v>
       </c>
       <c r="F345" t="n">
-        <v>14.837122497455</v>
+        <v>14.788196499535</v>
       </c>
       <c r="G345" t="n">
-        <v>-2.82504834390656</v>
+        <v>-2.87397434182663</v>
       </c>
     </row>
     <row r="346">
@@ -10845,10 +10845,10 @@
         <v>9</v>
       </c>
       <c r="F346" t="n">
-        <v>12.5012903891814</v>
+        <v>12.467826624112</v>
       </c>
       <c r="G346" t="n">
-        <v>-2.14815265116309</v>
+        <v>-2.18161641623246</v>
       </c>
     </row>
     <row r="347">
@@ -10868,10 +10868,10 @@
         <v>9</v>
       </c>
       <c r="F347" t="n">
-        <v>10.9261939218524</v>
+        <v>10.9151366199219</v>
       </c>
       <c r="G347" t="n">
-        <v>-4.24803903663713</v>
+        <v>-4.25909633856758</v>
       </c>
     </row>
     <row r="348">
@@ -10891,10 +10891,10 @@
         <v>9</v>
       </c>
       <c r="F348" t="n">
-        <v>13.8983731673027</v>
+        <v>13.9067524115756</v>
       </c>
       <c r="G348" t="n">
-        <v>-4.11456776360945</v>
+        <v>-4.10618851933657</v>
       </c>
     </row>
     <row r="349">
@@ -10914,10 +10914,10 @@
         <v>9</v>
       </c>
       <c r="F349" t="n">
-        <v>12.7276962497088</v>
+        <v>12.7075677938509</v>
       </c>
       <c r="G349" t="n">
-        <v>-3.52134433903107</v>
+        <v>-3.54147279488902</v>
       </c>
     </row>
     <row r="350">
@@ -10937,10 +10937,10 @@
         <v>9</v>
       </c>
       <c r="F350" t="n">
-        <v>10.9817736253638</v>
+        <v>10.9557643823058</v>
       </c>
       <c r="G350" t="n">
-        <v>-3.4273844248578</v>
+        <v>-3.45339366791581</v>
       </c>
     </row>
     <row r="351">
@@ -10960,10 +10960,10 @@
         <v>9</v>
       </c>
       <c r="F351" t="n">
-        <v>9.97242238235033</v>
+        <v>9.96621621621622</v>
       </c>
       <c r="G351" t="n">
-        <v>-3.00012388552092</v>
+        <v>-3.00633005165503</v>
       </c>
     </row>
     <row r="352">
@@ -10983,10 +10983,10 @@
         <v>9</v>
       </c>
       <c r="F352" t="n">
-        <v>19.3789308176101</v>
+        <v>19.3447125760251</v>
       </c>
       <c r="G352" t="n">
-        <v>-2.79583337530683</v>
+        <v>-2.83005161689178</v>
       </c>
     </row>
     <row r="353">
@@ -11006,10 +11006,10 @@
         <v>9</v>
       </c>
       <c r="F353" t="n">
-        <v>18.1128640776699</v>
+        <v>18.0854286579824</v>
       </c>
       <c r="G353" t="n">
-        <v>-3.67876748649747</v>
+        <v>-3.70620290618494</v>
       </c>
     </row>
     <row r="354">
@@ -11029,10 +11029,10 @@
         <v>9</v>
       </c>
       <c r="F354" t="n">
-        <v>17.6718938480097</v>
+        <v>17.6683417085427</v>
       </c>
       <c r="G354" t="n">
-        <v>-3.71140219971593</v>
+        <v>-3.71495433918286</v>
       </c>
     </row>
     <row r="355">
@@ -11052,10 +11052,10 @@
         <v>9</v>
       </c>
       <c r="F355" t="n">
-        <v>16.4957086037262</v>
+        <v>16.4303586321935</v>
       </c>
       <c r="G355" t="n">
-        <v>-2.99274339092928</v>
+        <v>-3.05809336246197</v>
       </c>
     </row>
     <row r="356">
@@ -11075,10 +11075,10 @@
         <v>9</v>
       </c>
       <c r="F356" t="n">
-        <v>19.1560962982138</v>
+        <v>19.1313340227508</v>
       </c>
       <c r="G356" t="n">
-        <v>-6.1903498350003</v>
+        <v>-6.21511211046335</v>
       </c>
     </row>
     <row r="357">
@@ -11098,10 +11098,10 @@
         <v>9</v>
       </c>
       <c r="F357" t="n">
-        <v>16.4999222435333</v>
+        <v>16.4283870967742</v>
       </c>
       <c r="G357" t="n">
-        <v>-4.43231576309317</v>
+        <v>-4.50385090985223</v>
       </c>
     </row>
     <row r="358">
@@ -11144,10 +11144,10 @@
         <v>9</v>
       </c>
       <c r="F359" t="n">
-        <v>19.1772625280479</v>
+        <v>19.0944295501936</v>
       </c>
       <c r="G359" t="n">
-        <v>-6.82572944801633</v>
+        <v>-6.90856242587056</v>
       </c>
     </row>
     <row r="360">
@@ -11167,10 +11167,10 @@
         <v>9</v>
       </c>
       <c r="F360" t="n">
-        <v>13.532477947073</v>
+        <v>13.5135135135135</v>
       </c>
       <c r="G360" t="n">
-        <v>-3.72218547547366</v>
+        <v>-3.74114990903312</v>
       </c>
     </row>
     <row r="361">
@@ -11190,10 +11190,10 @@
         <v>9</v>
       </c>
       <c r="F361" t="n">
-        <v>18.7672668381442</v>
+        <v>18.7315774460397</v>
       </c>
       <c r="G361" t="n">
-        <v>-2.44320208224835</v>
+        <v>-2.47889147435284</v>
       </c>
     </row>
     <row r="362">
@@ -11213,10 +11213,10 @@
         <v>9</v>
       </c>
       <c r="F362" t="n">
-        <v>15.5859194071329</v>
+        <v>15.5403325123153</v>
       </c>
       <c r="G362" t="n">
-        <v>-4.62730326029695</v>
+        <v>-4.67289015511461</v>
       </c>
     </row>
     <row r="363">
@@ -11236,10 +11236,10 @@
         <v>9</v>
       </c>
       <c r="F363" t="n">
-        <v>18.3531116948999</v>
+        <v>18.3166079016364</v>
       </c>
       <c r="G363" t="n">
-        <v>-4.64871868948082</v>
+        <v>-4.68522248274434</v>
       </c>
     </row>
     <row r="364">
@@ -11259,10 +11259,10 @@
         <v>9</v>
       </c>
       <c r="F364" t="n">
-        <v>18.0257510729614</v>
+        <v>18.096357226792</v>
       </c>
       <c r="G364" t="n">
-        <v>-4.86626076135815</v>
+        <v>-4.79565460752752</v>
       </c>
     </row>
     <row r="365">
@@ -11282,10 +11282,10 @@
         <v>9</v>
       </c>
       <c r="F365" t="n">
-        <v>14.7173630186497</v>
+        <v>14.7046078289759</v>
       </c>
       <c r="G365" t="n">
-        <v>-4.0860557847691</v>
+        <v>-4.09881097444292</v>
       </c>
     </row>
     <row r="366">
@@ -11305,10 +11305,10 @@
         <v>9</v>
       </c>
       <c r="F366" t="n">
-        <v>19.9609882964889</v>
+        <v>20.013037809648</v>
       </c>
       <c r="G366" t="n">
-        <v>-1.71603033705143</v>
+        <v>-1.66398082389239</v>
       </c>
     </row>
     <row r="367">
@@ -11328,10 +11328,10 @@
         <v>9</v>
       </c>
       <c r="F367" t="n">
-        <v>14.2728904847397</v>
+        <v>14.1396176078257</v>
       </c>
       <c r="G367" t="n">
-        <v>-4.96610053706451</v>
+        <v>-5.09937341397849</v>
       </c>
     </row>
     <row r="368">
@@ -11351,10 +11351,10 @@
         <v>9</v>
       </c>
       <c r="F368" t="n">
-        <v>14.3110795454545</v>
+        <v>14.2252029650547</v>
       </c>
       <c r="G368" t="n">
-        <v>-4.83249728074193</v>
+        <v>-4.91837386114176</v>
       </c>
     </row>
     <row r="369">
@@ -11374,10 +11374,10 @@
         <v>9</v>
       </c>
       <c r="F369" t="n">
-        <v>15.2319621500854</v>
+        <v>15.2099737532808</v>
       </c>
       <c r="G369" t="n">
-        <v>-2.91972682378328</v>
+        <v>-2.94171522058787</v>
       </c>
     </row>
     <row r="370">
@@ -11397,10 +11397,10 @@
         <v>9</v>
       </c>
       <c r="F370" t="n">
-        <v>18.4695803688108</v>
+        <v>18.4081041968162</v>
       </c>
       <c r="G370" t="n">
-        <v>-4.74811971313402</v>
+        <v>-4.80959588512862</v>
       </c>
     </row>
     <row r="371">
@@ -11420,10 +11420,10 @@
         <v>9</v>
       </c>
       <c r="F371" t="n">
-        <v>18.8859352344128</v>
+        <v>18.8381342653971</v>
       </c>
       <c r="G371" t="n">
-        <v>-4.9562005752216</v>
+        <v>-5.00400154423723</v>
       </c>
     </row>
     <row r="372">
@@ -11443,10 +11443,10 @@
         <v>9</v>
       </c>
       <c r="F372" t="n">
-        <v>19.7053406998158</v>
+        <v>19.6781609195402</v>
       </c>
       <c r="G372" t="n">
-        <v>-3.11206089829011</v>
+        <v>-3.13924067856572</v>
       </c>
     </row>
     <row r="373">
@@ -11466,10 +11466,10 @@
         <v>9</v>
       </c>
       <c r="F373" t="n">
-        <v>14.75</v>
+        <v>14.713216957606</v>
       </c>
       <c r="G373" t="n">
-        <v>-4.02062706270627</v>
+        <v>-4.05741010510029</v>
       </c>
     </row>
     <row r="374">
@@ -11489,10 +11489,10 @@
         <v>9</v>
       </c>
       <c r="F374" t="n">
-        <v>19.1133004926108</v>
+        <v>19.044502617801</v>
       </c>
       <c r="G374" t="n">
-        <v>-2.16329525207001</v>
+        <v>-2.2320931268798</v>
       </c>
     </row>
     <row r="375">
@@ -11512,10 +11512,10 @@
         <v>9</v>
       </c>
       <c r="F375" t="n">
-        <v>17.5925925925926</v>
+        <v>17.6190476190476</v>
       </c>
       <c r="G375" t="n">
-        <v>-3.02622556616977</v>
+        <v>-2.99977053971474</v>
       </c>
     </row>
     <row r="376">
@@ -11535,10 +11535,10 @@
         <v>9</v>
       </c>
       <c r="F376" t="n">
-        <v>16.9123157631776</v>
+        <v>16.8547717842324</v>
       </c>
       <c r="G376" t="n">
-        <v>-3.82133654942206</v>
+        <v>-3.87888052836732</v>
       </c>
     </row>
     <row r="377">
@@ -11558,10 +11558,10 @@
         <v>9</v>
       </c>
       <c r="F377" t="n">
-        <v>16.7824395665463</v>
+        <v>16.7560569631959</v>
       </c>
       <c r="G377" t="n">
-        <v>-4.47691205440137</v>
+        <v>-4.50329465775178</v>
       </c>
     </row>
     <row r="378">
@@ -11581,10 +11581,10 @@
         <v>9</v>
       </c>
       <c r="F378" t="n">
-        <v>15.5639788651505</v>
+        <v>15.5087558658578</v>
       </c>
       <c r="G378" t="n">
-        <v>-2.2010318366632</v>
+        <v>-2.25625483595583</v>
       </c>
     </row>
     <row r="379">
@@ -11604,10 +11604,10 @@
         <v>9</v>
       </c>
       <c r="F379" t="n">
-        <v>19.612188365651</v>
+        <v>19.5868683142752</v>
       </c>
       <c r="G379" t="n">
-        <v>-4.27179870519729</v>
+        <v>-4.29711875657308</v>
       </c>
     </row>
     <row r="380">
@@ -11627,10 +11627,10 @@
         <v>9</v>
       </c>
       <c r="F380" t="n">
-        <v>13.6067708333333</v>
+        <v>13.5714285714286</v>
       </c>
       <c r="G380" t="n">
-        <v>-4.40258467602217</v>
+        <v>-4.43792693792694</v>
       </c>
     </row>
     <row r="381">
@@ -11650,10 +11650,10 @@
         <v>9</v>
       </c>
       <c r="F381" t="n">
-        <v>12.4472843450479</v>
+        <v>12.4092241049815</v>
       </c>
       <c r="G381" t="n">
-        <v>-2.3301929109147</v>
+        <v>-2.3682531509811</v>
       </c>
     </row>
     <row r="382">
@@ -11673,10 +11673,10 @@
         <v>9</v>
       </c>
       <c r="F382" t="n">
-        <v>13.4946949602122</v>
+        <v>13.4589947089947</v>
       </c>
       <c r="G382" t="n">
-        <v>-3.18795125263535</v>
+        <v>-3.22365150385285</v>
       </c>
     </row>
     <row r="383">
@@ -11696,10 +11696,10 @@
         <v>9</v>
       </c>
       <c r="F383" t="n">
-        <v>16.1633109619687</v>
+        <v>16.1362367392518</v>
       </c>
       <c r="G383" t="n">
-        <v>-5.98812697032109</v>
+        <v>-6.01520119303796</v>
       </c>
     </row>
     <row r="384">
@@ -11719,10 +11719,10 @@
         <v>9</v>
       </c>
       <c r="F384" t="n">
-        <v>13.6691801700626</v>
+        <v>13.6516583880788</v>
       </c>
       <c r="G384" t="n">
-        <v>-6.14554741668574</v>
+        <v>-6.16306919866948</v>
       </c>
     </row>
     <row r="385">
@@ -11742,10 +11742,10 @@
         <v>9</v>
       </c>
       <c r="F385" t="n">
-        <v>16.9194312796209</v>
+        <v>16.951566951567</v>
       </c>
       <c r="G385" t="n">
-        <v>-5.54752907280206</v>
+        <v>-5.51539340085596</v>
       </c>
     </row>
     <row r="386">
@@ -11765,10 +11765,10 @@
         <v>9</v>
       </c>
       <c r="F386" t="n">
-        <v>13.1549136222033</v>
+        <v>13.1456063393236</v>
       </c>
       <c r="G386" t="n">
-        <v>-3.13328374252893</v>
+        <v>-3.14259102540865</v>
       </c>
     </row>
     <row r="387">
@@ -11788,10 +11788,10 @@
         <v>9</v>
       </c>
       <c r="F387" t="n">
-        <v>15.4277699859748</v>
+        <v>15.3717160424818</v>
       </c>
       <c r="G387" t="n">
-        <v>-4.26107121574198</v>
+        <v>-4.3171251592349</v>
       </c>
     </row>
     <row r="388">
@@ -11811,10 +11811,10 @@
         <v>9</v>
       </c>
       <c r="F388" t="n">
-        <v>13.6612021857924</v>
+        <v>13.6497270054599</v>
       </c>
       <c r="G388" t="n">
-        <v>-4.54215843462988</v>
+        <v>-4.55363361496234</v>
       </c>
     </row>
     <row r="389">
@@ -11834,10 +11834,10 @@
         <v>9</v>
       </c>
       <c r="F389" t="n">
-        <v>16.1603102779573</v>
+        <v>16.1498708010336</v>
       </c>
       <c r="G389" t="n">
-        <v>-2.22250715729219</v>
+        <v>-2.23294663421593</v>
       </c>
     </row>
     <row r="390">
@@ -11857,10 +11857,10 @@
         <v>9</v>
       </c>
       <c r="F390" t="n">
-        <v>18.1869369369369</v>
+        <v>18.1460674157303</v>
       </c>
       <c r="G390" t="n">
-        <v>-2.86871423919617</v>
+        <v>-2.90958376040277</v>
       </c>
     </row>
     <row r="391">
@@ -11880,10 +11880,10 @@
         <v>9</v>
       </c>
       <c r="F391" t="n">
-        <v>14.4189991518236</v>
+        <v>14.2378559463987</v>
       </c>
       <c r="G391" t="n">
-        <v>-6.01404688559496</v>
+        <v>-6.19519009101988</v>
       </c>
     </row>
     <row r="392">
@@ -11903,10 +11903,10 @@
         <v>9</v>
       </c>
       <c r="F392" t="n">
-        <v>16.7744813740799</v>
+        <v>16.7296996662959</v>
       </c>
       <c r="G392" t="n">
-        <v>-6.24122092749037</v>
+        <v>-6.28600263527435</v>
       </c>
     </row>
     <row r="393">
@@ -11926,10 +11926,10 @@
         <v>9</v>
       </c>
       <c r="F393" t="n">
-        <v>15.9404096834264</v>
+        <v>15.8459829692706</v>
       </c>
       <c r="G393" t="n">
-        <v>-4.46701119689367</v>
+        <v>-4.56143791104947</v>
       </c>
     </row>
     <row r="394">
@@ -11949,10 +11949,10 @@
         <v>9</v>
       </c>
       <c r="F394" t="n">
-        <v>19.3731243747916</v>
+        <v>19.2767086927671</v>
       </c>
       <c r="G394" t="n">
-        <v>-7.8647272876125</v>
+        <v>-7.96114296963701</v>
       </c>
     </row>
     <row r="395">
@@ -11972,10 +11972,10 @@
         <v>9</v>
       </c>
       <c r="F395" t="n">
-        <v>16.1477572559367</v>
+        <v>16.096791162546</v>
       </c>
       <c r="G395" t="n">
-        <v>-5.75125481870657</v>
+        <v>-5.80222091209722</v>
       </c>
     </row>
     <row r="396">
@@ -11995,10 +11995,10 @@
         <v>9</v>
       </c>
       <c r="F396" t="n">
-        <v>15.4430817066851</v>
+        <v>15.4164511122607</v>
       </c>
       <c r="G396" t="n">
-        <v>-5.64243873609298</v>
+        <v>-5.66906933051734</v>
       </c>
     </row>
     <row r="397">
@@ -12018,10 +12018,10 @@
         <v>9</v>
       </c>
       <c r="F397" t="n">
-        <v>20.9508015478165</v>
+        <v>20.962389380531</v>
       </c>
       <c r="G397" t="n">
-        <v>-1.55474168943408</v>
+        <v>-1.54315385671958</v>
       </c>
     </row>
     <row r="398">
@@ -12041,10 +12041,10 @@
         <v>9</v>
       </c>
       <c r="F398" t="n">
-        <v>17.360430950049</v>
+        <v>17.275828460039</v>
       </c>
       <c r="G398" t="n">
-        <v>-4.6405062570738</v>
+        <v>-4.72510874708379</v>
       </c>
     </row>
     <row r="399">
@@ -12064,10 +12064,10 @@
         <v>9</v>
       </c>
       <c r="F399" t="n">
-        <v>16.6971358927483</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="G399" t="n">
-        <v>-5.73715697333428</v>
+        <v>-5.76762619941594</v>
       </c>
     </row>
     <row r="400">
@@ -12087,10 +12087,10 @@
         <v>9</v>
       </c>
       <c r="F400" t="n">
-        <v>17.7269670477471</v>
+        <v>17.6817815937752</v>
       </c>
       <c r="G400" t="n">
-        <v>-5.33054390988335</v>
+        <v>-5.37572936385534</v>
       </c>
     </row>
     <row r="401">
@@ -12110,10 +12110,10 @@
         <v>9</v>
       </c>
       <c r="F401" t="n">
-        <v>14.0337423312883</v>
+        <v>13.9163498098859</v>
       </c>
       <c r="G401" t="n">
-        <v>-4.79596509556837</v>
+        <v>-4.91335761697079</v>
       </c>
     </row>
     <row r="402">
@@ -12133,10 +12133,10 @@
         <v>9</v>
       </c>
       <c r="F402" t="n">
-        <v>14.6909594095941</v>
+        <v>14.6436781609195</v>
       </c>
       <c r="G402" t="n">
-        <v>-4.37752110689196</v>
+        <v>-4.42480235556651</v>
       </c>
     </row>
     <row r="403">
@@ -12156,10 +12156,10 @@
         <v>9</v>
       </c>
       <c r="F403" t="n">
-        <v>20.501360279829</v>
+        <v>20.5093312597201</v>
       </c>
       <c r="G403" t="n">
-        <v>-6.44000263617735</v>
+        <v>-6.43203165628628</v>
       </c>
     </row>
     <row r="404">
@@ -12179,10 +12179,10 @@
         <v>9</v>
       </c>
       <c r="F404" t="n">
-        <v>10.7289293849658</v>
+        <v>10.7094133697135</v>
       </c>
       <c r="G404" t="n">
-        <v>-5.70942677941773</v>
+        <v>-5.72894279467005</v>
       </c>
     </row>
     <row r="405">
@@ -12202,10 +12202,10 @@
         <v>9</v>
       </c>
       <c r="F405" t="n">
-        <v>11.32802124834</v>
+        <v>11.2860545117756</v>
       </c>
       <c r="G405" t="n">
-        <v>-5.3819917555612</v>
+        <v>-5.42395849212557</v>
       </c>
     </row>
     <row r="406">
@@ -12225,10 +12225,10 @@
         <v>9</v>
       </c>
       <c r="F406" t="n">
-        <v>11.7221418234443</v>
+        <v>11.7023838189261</v>
       </c>
       <c r="G406" t="n">
-        <v>-3.14294009110759</v>
+        <v>-3.1626980956258</v>
       </c>
     </row>
     <row r="407">
@@ -12248,10 +12248,10 @@
         <v>9</v>
       </c>
       <c r="F407" t="n">
-        <v>14.7112935182564</v>
+        <v>14.6977730646872</v>
       </c>
       <c r="G407" t="n">
-        <v>-6.4337989426255</v>
+        <v>-6.44731939619476</v>
       </c>
     </row>
     <row r="408">
@@ -12271,10 +12271,10 @@
         <v>9</v>
       </c>
       <c r="F408" t="n">
-        <v>11.8500430910658</v>
+        <v>11.8110236220472</v>
       </c>
       <c r="G408" t="n">
-        <v>-3.08730732425169</v>
+        <v>-3.12632679327023</v>
       </c>
     </row>
     <row r="409">
@@ -12294,10 +12294,10 @@
         <v>9</v>
       </c>
       <c r="F409" t="n">
-        <v>13.1658373439922</v>
+        <v>13.1540342298289</v>
       </c>
       <c r="G409" t="n">
-        <v>-4.4951102398265</v>
+        <v>-4.50691335398982</v>
       </c>
     </row>
     <row r="410">
@@ -12317,10 +12317,10 @@
         <v>9</v>
       </c>
       <c r="F410" t="n">
-        <v>8.59080633006782</v>
+        <v>8.56498873027799</v>
       </c>
       <c r="G410" t="n">
-        <v>-3.85962983170855</v>
+        <v>-3.88544743149838</v>
       </c>
     </row>
     <row r="411">
@@ -12340,10 +12340,10 @@
         <v>9</v>
       </c>
       <c r="F411" t="n">
-        <v>12.2936598423636</v>
+        <v>12.2469135802469</v>
       </c>
       <c r="G411" t="n">
-        <v>-2.80591653198518</v>
+        <v>-2.85266279410182</v>
       </c>
     </row>
     <row r="412">
@@ -12363,10 +12363,10 @@
         <v>9</v>
       </c>
       <c r="F412" t="n">
-        <v>13.3529288263699</v>
+        <v>13.2970938741376</v>
       </c>
       <c r="G412" t="n">
-        <v>-4.29776033223941</v>
+        <v>-4.35359528447177</v>
       </c>
     </row>
     <row r="413">
@@ -12386,10 +12386,10 @@
         <v>9</v>
       </c>
       <c r="F413" t="n">
-        <v>12.1385628399656</v>
+        <v>12.093553907587</v>
       </c>
       <c r="G413" t="n">
-        <v>-3.43918323706717</v>
+        <v>-3.48419216944582</v>
       </c>
     </row>
     <row r="414">
@@ -12409,10 +12409,10 @@
         <v>9</v>
       </c>
       <c r="F414" t="n">
-        <v>11.2451289664131</v>
+        <v>11.2014787430684</v>
       </c>
       <c r="G414" t="n">
-        <v>-3.8126348871213</v>
+        <v>-3.85628511046597</v>
       </c>
     </row>
     <row r="415">
@@ -12432,10 +12432,10 @@
         <v>9</v>
       </c>
       <c r="F415" t="n">
-        <v>12.8192288432649</v>
+        <v>12.7744510978044</v>
       </c>
       <c r="G415" t="n">
-        <v>-2.38578254625674</v>
+        <v>-2.43056029171725</v>
       </c>
     </row>
     <row r="416">
@@ -12455,10 +12455,10 @@
         <v>9</v>
       </c>
       <c r="F416" t="n">
-        <v>15.633423180593</v>
+        <v>15.583019881784</v>
       </c>
       <c r="G416" t="n">
-        <v>-6.21531631520533</v>
+        <v>-6.26571961401433</v>
       </c>
     </row>
     <row r="417">
@@ -12501,10 +12501,10 @@
         <v>9</v>
       </c>
       <c r="F418" t="n">
-        <v>14.6959896507115</v>
+        <v>14.6542827657379</v>
       </c>
       <c r="G418" t="n">
-        <v>-6.94277239900944</v>
+        <v>-6.98447928398308</v>
       </c>
     </row>
     <row r="419">
@@ -12524,10 +12524,10 @@
         <v>9</v>
       </c>
       <c r="F419" t="n">
-        <v>12.6353790613718</v>
+        <v>12.5748502994012</v>
       </c>
       <c r="G419" t="n">
-        <v>-7.56902345435143</v>
+        <v>-7.62955221632207</v>
       </c>
     </row>
     <row r="420">
@@ -12547,10 +12547,10 @@
         <v>9</v>
       </c>
       <c r="F420" t="n">
-        <v>10.7604017216643</v>
+        <v>10.7099143206854</v>
       </c>
       <c r="G420" t="n">
-        <v>-3.95725947176784</v>
+        <v>-4.00774687274668</v>
       </c>
     </row>
     <row r="421">
@@ -12570,10 +12570,10 @@
         <v>9</v>
       </c>
       <c r="F421" t="n">
-        <v>13.6814276272307</v>
+        <v>13.6214082035534</v>
       </c>
       <c r="G421" t="n">
-        <v>-6.59402958658735</v>
+        <v>-6.65404901026461</v>
       </c>
     </row>
     <row r="422">
@@ -12593,10 +12593,10 @@
         <v>9</v>
       </c>
       <c r="F422" t="n">
-        <v>12.0211693548387</v>
+        <v>11.9608826479438</v>
       </c>
       <c r="G422" t="n">
-        <v>-3.48444862268938</v>
+        <v>-3.54473532958426</v>
       </c>
     </row>
   </sheetData>
